--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="312">
   <si>
     <t>p18_act</t>
   </si>
@@ -82,7 +82,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>REUNIONES</t>
@@ -1323,13 +1326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W214"/>
+  <dimension ref="A1:X214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,19 +1402,22 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1420,13 +1426,13 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="Q2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1440,19 +1446,22 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1461,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Q3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1481,19 +1490,22 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1502,13 +1514,13 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Q4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1522,19 +1534,22 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1543,13 +1558,13 @@
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Q5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1563,19 +1578,22 @@
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1584,13 +1602,13 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1604,19 +1622,22 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1625,13 +1646,13 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1645,19 +1666,22 @@
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1666,13 +1690,13 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1686,19 +1710,22 @@
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1707,13 +1734,13 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1727,19 +1754,22 @@
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1748,13 +1778,13 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1768,19 +1798,22 @@
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1789,13 +1822,13 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N11" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1809,19 +1842,22 @@
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -1830,13 +1866,13 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1850,19 +1886,22 @@
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1871,13 +1910,13 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1891,19 +1930,22 @@
       <c r="W13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1912,13 +1954,13 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1932,19 +1974,22 @@
       <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -1953,13 +1998,13 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1973,19 +2018,22 @@
       <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -1994,13 +2042,13 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N16" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2014,19 +2062,22 @@
       <c r="W16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2035,13 +2086,13 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N17" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2055,19 +2106,22 @@
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2076,13 +2130,13 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N18" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2096,19 +2150,22 @@
       <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2117,13 +2174,13 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N19" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2137,19 +2194,22 @@
       <c r="W19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K20">
         <v>11</v>
@@ -2158,13 +2218,13 @@
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2178,19 +2238,22 @@
       <c r="W20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K21">
         <v>11</v>
@@ -2199,13 +2262,13 @@
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2219,19 +2282,22 @@
       <c r="W21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2240,13 +2306,13 @@
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2260,19 +2326,22 @@
       <c r="W22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K23">
         <v>11</v>
@@ -2281,13 +2350,13 @@
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2301,19 +2370,22 @@
       <c r="W23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2322,13 +2394,13 @@
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2342,19 +2414,22 @@
       <c r="W24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -2363,13 +2438,13 @@
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2383,19 +2458,22 @@
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -2404,13 +2482,13 @@
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2424,19 +2502,22 @@
       <c r="W26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -2445,13 +2526,13 @@
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2465,19 +2546,22 @@
       <c r="W27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K28">
         <v>12</v>
@@ -2486,13 +2570,13 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2506,19 +2590,22 @@
       <c r="W28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -2527,13 +2614,13 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2547,19 +2634,22 @@
       <c r="W29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K30">
         <v>12</v>
@@ -2568,13 +2658,13 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N30" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2588,19 +2678,22 @@
       <c r="W30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K31">
         <v>13</v>
@@ -2609,13 +2702,13 @@
         <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Q31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2629,19 +2722,22 @@
       <c r="W31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -2650,13 +2746,13 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N32" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Q32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2670,19 +2766,22 @@
       <c r="W32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K33">
         <v>14</v>
@@ -2691,13 +2790,13 @@
         <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Q33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -2711,19 +2810,22 @@
       <c r="W33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K34">
         <v>14</v>
@@ -2732,13 +2834,13 @@
         <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Q34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -2752,19 +2854,22 @@
       <c r="W34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35">
         <v>15</v>
@@ -2773,13 +2878,13 @@
         <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -2793,19 +2898,22 @@
       <c r="W35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -2814,13 +2922,13 @@
         <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N36" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -2834,19 +2942,22 @@
       <c r="W36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K37">
         <v>16</v>
@@ -2855,13 +2966,13 @@
         <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Q37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -2875,19 +2986,22 @@
       <c r="W37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K38">
         <v>17</v>
@@ -2896,13 +3010,13 @@
         <v>26</v>
       </c>
       <c r="M38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N38" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Q38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -2916,19 +3030,22 @@
       <c r="W38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K39">
         <v>18</v>
@@ -2937,13 +3054,13 @@
         <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N39" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -2957,19 +3074,22 @@
       <c r="W39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -2978,13 +3098,13 @@
         <v>30</v>
       </c>
       <c r="M40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N40" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -2998,19 +3118,22 @@
       <c r="W40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K41">
         <v>19</v>
@@ -3019,13 +3142,13 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3039,19 +3162,22 @@
       <c r="W41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K42">
         <v>19</v>
@@ -3060,13 +3186,13 @@
         <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N42" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3080,19 +3206,22 @@
       <c r="W42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K43">
         <v>19</v>
@@ -3101,13 +3230,13 @@
         <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N43" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -3121,19 +3250,22 @@
       <c r="W43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K44">
         <v>19</v>
@@ -3142,13 +3274,13 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N44" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -3162,19 +3294,22 @@
       <c r="W44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K45">
         <v>20</v>
@@ -3183,13 +3318,13 @@
         <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N45" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Q45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -3203,19 +3338,22 @@
       <c r="W45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K46">
         <v>21</v>
@@ -3224,13 +3362,13 @@
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N46" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -3244,19 +3382,22 @@
       <c r="W46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K47">
         <v>22</v>
@@ -3265,13 +3406,13 @@
         <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N47" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -3285,19 +3426,22 @@
       <c r="W47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K48">
         <v>22</v>
@@ -3306,13 +3450,13 @@
         <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N48" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -3326,19 +3470,22 @@
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K49">
         <v>22</v>
@@ -3347,13 +3494,13 @@
         <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N49" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -3367,19 +3514,22 @@
       <c r="W49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K50">
         <v>23</v>
@@ -3388,13 +3538,13 @@
         <v>38</v>
       </c>
       <c r="M50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q50" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -3408,19 +3558,22 @@
       <c r="W50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K51">
         <v>23</v>
@@ -3429,13 +3582,13 @@
         <v>38</v>
       </c>
       <c r="M51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -3449,19 +3602,22 @@
       <c r="W51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K52">
         <v>23</v>
@@ -3470,13 +3626,13 @@
         <v>38</v>
       </c>
       <c r="M52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -3490,19 +3646,22 @@
       <c r="W52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K53">
         <v>23</v>
@@ -3511,13 +3670,13 @@
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -3531,19 +3690,22 @@
       <c r="W53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K54">
         <v>23</v>
@@ -3552,13 +3714,13 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -3572,19 +3734,22 @@
       <c r="W54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K55">
         <v>23</v>
@@ -3593,13 +3758,13 @@
         <v>38</v>
       </c>
       <c r="M55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -3613,19 +3778,22 @@
       <c r="W55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K56">
         <v>23</v>
@@ -3634,13 +3802,13 @@
         <v>38</v>
       </c>
       <c r="M56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -3654,19 +3822,22 @@
       <c r="W56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K57">
         <v>24</v>
@@ -3675,13 +3846,13 @@
         <v>51</v>
       </c>
       <c r="M57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q57" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -3695,19 +3866,22 @@
       <c r="W57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K58">
         <v>24</v>
@@ -3716,13 +3890,13 @@
         <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -3736,19 +3910,22 @@
       <c r="W58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K59">
         <v>24</v>
@@ -3757,13 +3934,13 @@
         <v>51</v>
       </c>
       <c r="M59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -3777,19 +3954,22 @@
       <c r="W59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K60">
         <v>24</v>
@@ -3798,13 +3978,13 @@
         <v>51</v>
       </c>
       <c r="M60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -3818,19 +3998,22 @@
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K61">
         <v>24</v>
@@ -3839,13 +4022,13 @@
         <v>51</v>
       </c>
       <c r="M61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -3859,19 +4042,22 @@
       <c r="W61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K62">
         <v>24</v>
@@ -3880,13 +4066,13 @@
         <v>51</v>
       </c>
       <c r="M62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -3900,19 +4086,22 @@
       <c r="W62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K63">
         <v>24</v>
@@ -3921,13 +4110,13 @@
         <v>51</v>
       </c>
       <c r="M63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -3941,19 +4130,22 @@
       <c r="W63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K64">
         <v>25</v>
@@ -3962,13 +4154,13 @@
         <v>52</v>
       </c>
       <c r="M64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N64" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Q64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -3982,19 +4174,22 @@
       <c r="W64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K65">
         <v>26</v>
@@ -4003,13 +4198,13 @@
         <v>55</v>
       </c>
       <c r="M65" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N65" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Q65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -4023,19 +4218,22 @@
       <c r="W65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K66">
         <v>27</v>
@@ -4044,13 +4242,13 @@
         <v>56</v>
       </c>
       <c r="M66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N66" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q66" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -4064,19 +4262,22 @@
       <c r="W66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K67">
         <v>28</v>
@@ -4085,13 +4286,13 @@
         <v>57</v>
       </c>
       <c r="M67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N67" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -4105,19 +4306,22 @@
       <c r="W67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K68">
         <v>28</v>
@@ -4126,13 +4330,13 @@
         <v>57</v>
       </c>
       <c r="M68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -4146,19 +4350,22 @@
       <c r="W68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K69">
         <v>28</v>
@@ -4167,13 +4374,13 @@
         <v>57</v>
       </c>
       <c r="M69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -4187,19 +4394,22 @@
       <c r="W69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K70">
         <v>28</v>
@@ -4208,13 +4418,13 @@
         <v>57</v>
       </c>
       <c r="M70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q70" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -4228,19 +4438,22 @@
       <c r="W70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K71">
         <v>28</v>
@@ -4249,13 +4462,13 @@
         <v>57</v>
       </c>
       <c r="M71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -4269,19 +4482,22 @@
       <c r="W71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K72">
         <v>28</v>
@@ -4290,13 +4506,13 @@
         <v>57</v>
       </c>
       <c r="M72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N72" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -4310,19 +4526,22 @@
       <c r="W72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K73">
         <v>29</v>
@@ -4331,13 +4550,13 @@
         <v>58</v>
       </c>
       <c r="M73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N73" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -4351,19 +4570,22 @@
       <c r="W73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K74">
         <v>29</v>
@@ -4372,13 +4594,13 @@
         <v>58</v>
       </c>
       <c r="M74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N74" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -4392,19 +4614,22 @@
       <c r="W74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K75">
         <v>29</v>
@@ -4413,13 +4638,13 @@
         <v>58</v>
       </c>
       <c r="M75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N75" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q75" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -4433,19 +4658,22 @@
       <c r="W75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K76">
         <v>30</v>
@@ -4454,13 +4682,13 @@
         <v>59</v>
       </c>
       <c r="M76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q76" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -4474,19 +4702,22 @@
       <c r="W76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K77">
         <v>30</v>
@@ -4495,13 +4726,13 @@
         <v>59</v>
       </c>
       <c r="M77" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -4515,19 +4746,22 @@
       <c r="W77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K78">
         <v>30</v>
@@ -4536,13 +4770,13 @@
         <v>59</v>
       </c>
       <c r="M78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -4556,19 +4790,22 @@
       <c r="W78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K79">
         <v>30</v>
@@ -4577,13 +4814,13 @@
         <v>59</v>
       </c>
       <c r="M79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -4597,19 +4834,22 @@
       <c r="W79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K80">
         <v>30</v>
@@ -4618,13 +4858,13 @@
         <v>59</v>
       </c>
       <c r="M80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -4638,19 +4878,22 @@
       <c r="W80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K81">
         <v>30</v>
@@ -4659,13 +4902,13 @@
         <v>59</v>
       </c>
       <c r="M81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q81" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -4679,19 +4922,22 @@
       <c r="W81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K82">
         <v>30</v>
@@ -4700,13 +4946,13 @@
         <v>59</v>
       </c>
       <c r="M82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -4720,19 +4966,22 @@
       <c r="W82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K83">
         <v>30</v>
@@ -4741,13 +4990,13 @@
         <v>59</v>
       </c>
       <c r="M83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N83" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -4761,19 +5010,22 @@
       <c r="W83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I84">
         <v>83</v>
       </c>
       <c r="J84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K84">
         <v>31</v>
@@ -4782,13 +5034,13 @@
         <v>60</v>
       </c>
       <c r="M84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N84" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -4802,19 +5054,22 @@
       <c r="W84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I85">
         <v>84</v>
       </c>
       <c r="J85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K85">
         <v>31</v>
@@ -4823,13 +5078,13 @@
         <v>60</v>
       </c>
       <c r="M85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N85" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q85" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -4843,19 +5098,22 @@
       <c r="W85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I86">
         <v>85</v>
       </c>
       <c r="J86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K86">
         <v>32</v>
@@ -4864,13 +5122,13 @@
         <v>61</v>
       </c>
       <c r="M86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N86" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q86" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -4884,19 +5142,22 @@
       <c r="W86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I87">
         <v>86</v>
       </c>
       <c r="J87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K87">
         <v>33</v>
@@ -4905,13 +5166,13 @@
         <v>63</v>
       </c>
       <c r="M87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q87" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -4925,19 +5186,22 @@
       <c r="W87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I88">
         <v>87</v>
       </c>
       <c r="J88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K88">
         <v>33</v>
@@ -4946,13 +5210,13 @@
         <v>63</v>
       </c>
       <c r="M88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -4966,19 +5230,22 @@
       <c r="W88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I89">
         <v>88</v>
       </c>
       <c r="J89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K89">
         <v>33</v>
@@ -4987,13 +5254,13 @@
         <v>63</v>
       </c>
       <c r="M89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q89" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -5007,19 +5274,22 @@
       <c r="W89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I90">
         <v>89</v>
       </c>
       <c r="J90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K90">
         <v>33</v>
@@ -5028,13 +5298,13 @@
         <v>63</v>
       </c>
       <c r="M90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -5048,19 +5318,22 @@
       <c r="W90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I91">
         <v>90</v>
       </c>
       <c r="J91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K91">
         <v>33</v>
@@ -5069,13 +5342,13 @@
         <v>63</v>
       </c>
       <c r="M91" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -5089,19 +5362,22 @@
       <c r="W91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I92">
         <v>91</v>
       </c>
       <c r="J92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K92">
         <v>33</v>
@@ -5110,13 +5386,13 @@
         <v>63</v>
       </c>
       <c r="M92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -5130,19 +5406,22 @@
       <c r="W92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I93">
         <v>92</v>
       </c>
       <c r="J93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K93">
         <v>34</v>
@@ -5151,13 +5430,13 @@
         <v>64</v>
       </c>
       <c r="M93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Q93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -5171,19 +5450,22 @@
       <c r="W93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I94">
         <v>93</v>
       </c>
       <c r="J94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K94">
         <v>34</v>
@@ -5192,13 +5474,13 @@
         <v>64</v>
       </c>
       <c r="M94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N94" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Q94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -5212,19 +5494,22 @@
       <c r="W94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I95">
         <v>94</v>
       </c>
       <c r="J95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K95">
         <v>35</v>
@@ -5233,13 +5518,13 @@
         <v>75</v>
       </c>
       <c r="M95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N95" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -5253,19 +5538,22 @@
       <c r="W95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I96">
         <v>95</v>
       </c>
       <c r="J96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K96">
         <v>36</v>
@@ -5274,13 +5562,13 @@
         <v>77</v>
       </c>
       <c r="M96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q96" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -5294,19 +5582,22 @@
       <c r="W96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I97">
         <v>96</v>
       </c>
       <c r="J97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K97">
         <v>36</v>
@@ -5315,13 +5606,13 @@
         <v>77</v>
       </c>
       <c r="M97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q97" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -5335,19 +5626,22 @@
       <c r="W97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I98">
         <v>97</v>
       </c>
       <c r="J98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K98">
         <v>37</v>
@@ -5356,13 +5650,13 @@
         <v>78</v>
       </c>
       <c r="M98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N98" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Q98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -5376,19 +5670,22 @@
       <c r="W98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I99">
         <v>98</v>
       </c>
       <c r="J99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K99">
         <v>38</v>
@@ -5397,13 +5694,13 @@
         <v>80</v>
       </c>
       <c r="M99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N99" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -5417,19 +5714,22 @@
       <c r="W99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I100">
         <v>99</v>
       </c>
       <c r="J100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K100">
         <v>38</v>
@@ -5438,13 +5738,13 @@
         <v>80</v>
       </c>
       <c r="M100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N100" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q100" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -5458,19 +5758,22 @@
       <c r="W100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K101">
         <v>38</v>
@@ -5479,13 +5782,13 @@
         <v>80</v>
       </c>
       <c r="M101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N101" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -5499,19 +5802,22 @@
       <c r="W101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I102">
         <v>101</v>
       </c>
       <c r="J102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K102">
         <v>38</v>
@@ -5520,13 +5826,13 @@
         <v>80</v>
       </c>
       <c r="M102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N102" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q102" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -5540,19 +5846,22 @@
       <c r="W102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I103">
         <v>102</v>
       </c>
       <c r="J103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K103">
         <v>38</v>
@@ -5561,13 +5870,13 @@
         <v>80</v>
       </c>
       <c r="M103" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N103" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T103">
         <v>0</v>
@@ -5581,19 +5890,22 @@
       <c r="W103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I104">
         <v>103</v>
       </c>
       <c r="J104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K104">
         <v>39</v>
@@ -5602,13 +5914,13 @@
         <v>81</v>
       </c>
       <c r="M104" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N104" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -5622,19 +5934,22 @@
       <c r="W104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I105">
         <v>104</v>
       </c>
       <c r="J105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K105">
         <v>39</v>
@@ -5643,13 +5958,13 @@
         <v>81</v>
       </c>
       <c r="M105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N105" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q105" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -5663,19 +5978,22 @@
       <c r="W105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I106">
         <v>105</v>
       </c>
       <c r="J106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K106">
         <v>39</v>
@@ -5684,13 +6002,13 @@
         <v>81</v>
       </c>
       <c r="M106" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N106" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q106" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T106">
         <v>0</v>
@@ -5704,19 +6022,22 @@
       <c r="W106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I107">
         <v>106</v>
       </c>
       <c r="J107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K107">
         <v>39</v>
@@ -5725,13 +6046,13 @@
         <v>81</v>
       </c>
       <c r="M107" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N107" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q107" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -5745,19 +6066,22 @@
       <c r="W107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I108">
         <v>107</v>
       </c>
       <c r="J108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K108">
         <v>39</v>
@@ -5766,13 +6090,13 @@
         <v>81</v>
       </c>
       <c r="M108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q108" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -5786,19 +6110,22 @@
       <c r="W108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I109">
         <v>108</v>
       </c>
       <c r="J109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K109">
         <v>39</v>
@@ -5807,13 +6134,13 @@
         <v>81</v>
       </c>
       <c r="M109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q109" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T109">
         <v>0</v>
@@ -5827,19 +6154,22 @@
       <c r="W109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I110">
         <v>109</v>
       </c>
       <c r="J110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K110">
         <v>39</v>
@@ -5848,13 +6178,13 @@
         <v>81</v>
       </c>
       <c r="M110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q110" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T110">
         <v>0</v>
@@ -5868,19 +6198,22 @@
       <c r="W110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I111">
         <v>110</v>
       </c>
       <c r="J111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K111">
         <v>39</v>
@@ -5889,13 +6222,13 @@
         <v>81</v>
       </c>
       <c r="M111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -5909,19 +6242,22 @@
       <c r="W111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I112">
         <v>111</v>
       </c>
       <c r="J112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K112">
         <v>39</v>
@@ -5930,13 +6266,13 @@
         <v>81</v>
       </c>
       <c r="M112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N112" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q112" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -5950,19 +6286,22 @@
       <c r="W112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I113">
         <v>112</v>
       </c>
       <c r="J113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K113">
         <v>39</v>
@@ -5971,13 +6310,13 @@
         <v>81</v>
       </c>
       <c r="M113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N113" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q113" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -5991,19 +6330,22 @@
       <c r="W113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I114">
         <v>113</v>
       </c>
       <c r="J114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K114">
         <v>39</v>
@@ -6012,13 +6354,13 @@
         <v>81</v>
       </c>
       <c r="M114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N114" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q114" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T114">
         <v>0</v>
@@ -6032,19 +6374,22 @@
       <c r="W114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I115">
         <v>114</v>
       </c>
       <c r="J115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K115">
         <v>39</v>
@@ -6053,13 +6398,13 @@
         <v>81</v>
       </c>
       <c r="M115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N115" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q115" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -6073,19 +6418,22 @@
       <c r="W115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I116">
         <v>115</v>
       </c>
       <c r="J116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K116">
         <v>39</v>
@@ -6094,13 +6442,13 @@
         <v>81</v>
       </c>
       <c r="M116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N116" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q116" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -6114,19 +6462,22 @@
       <c r="W116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I117">
         <v>116</v>
       </c>
       <c r="J117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K117">
         <v>40</v>
@@ -6135,13 +6486,13 @@
         <v>82</v>
       </c>
       <c r="M117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N117" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Q117" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T117">
         <v>0</v>
@@ -6155,19 +6506,22 @@
       <c r="W117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I118">
         <v>117</v>
       </c>
       <c r="J118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K118">
         <v>40</v>
@@ -6176,13 +6530,13 @@
         <v>82</v>
       </c>
       <c r="M118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N118" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Q118" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -6196,19 +6550,22 @@
       <c r="W118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="X118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I119">
         <v>118</v>
       </c>
       <c r="J119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K119">
         <v>41</v>
@@ -6217,13 +6574,13 @@
         <v>83</v>
       </c>
       <c r="M119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N119" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="Q119" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T119">
         <v>0</v>
@@ -6237,19 +6594,22 @@
       <c r="W119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I120">
         <v>119</v>
       </c>
       <c r="J120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K120">
         <v>42</v>
@@ -6258,13 +6618,13 @@
         <v>84</v>
       </c>
       <c r="M120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N120" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q120" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T120">
         <v>0</v>
@@ -6278,19 +6638,22 @@
       <c r="W120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I121">
         <v>120</v>
       </c>
       <c r="J121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K121">
         <v>42</v>
@@ -6299,13 +6662,13 @@
         <v>84</v>
       </c>
       <c r="M121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N121" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q121" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -6319,19 +6682,22 @@
       <c r="W121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I122">
         <v>121</v>
       </c>
       <c r="J122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K122">
         <v>42</v>
@@ -6340,13 +6706,13 @@
         <v>84</v>
       </c>
       <c r="M122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N122" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q122" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -6360,19 +6726,22 @@
       <c r="W122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I123">
         <v>122</v>
       </c>
       <c r="J123" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K123">
         <v>42</v>
@@ -6381,13 +6750,13 @@
         <v>84</v>
       </c>
       <c r="M123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N123" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q123" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -6401,19 +6770,22 @@
       <c r="W123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I124">
         <v>123</v>
       </c>
       <c r="J124" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K124">
         <v>43</v>
@@ -6422,13 +6794,13 @@
         <v>86</v>
       </c>
       <c r="M124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N124" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="Q124" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -6442,19 +6814,22 @@
       <c r="W124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I125">
         <v>124</v>
       </c>
       <c r="J125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K125">
         <v>44</v>
@@ -6463,13 +6838,13 @@
         <v>87</v>
       </c>
       <c r="M125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N125" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q125" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T125">
         <v>0</v>
@@ -6483,19 +6858,22 @@
       <c r="W125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="X125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I126">
         <v>125</v>
       </c>
       <c r="J126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K126">
         <v>44</v>
@@ -6504,13 +6882,13 @@
         <v>87</v>
       </c>
       <c r="M126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N126" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q126" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -6524,19 +6902,22 @@
       <c r="W126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I127">
         <v>126</v>
       </c>
       <c r="J127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K127">
         <v>44</v>
@@ -6545,13 +6926,13 @@
         <v>87</v>
       </c>
       <c r="M127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N127" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q127" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -6565,19 +6946,22 @@
       <c r="W127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I128">
         <v>127</v>
       </c>
       <c r="J128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K128">
         <v>44</v>
@@ -6586,13 +6970,13 @@
         <v>87</v>
       </c>
       <c r="M128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N128" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q128" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -6606,19 +6990,22 @@
       <c r="W128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="X128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I129">
         <v>128</v>
       </c>
       <c r="J129" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K129">
         <v>44</v>
@@ -6627,13 +7014,13 @@
         <v>87</v>
       </c>
       <c r="M129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N129" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q129" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T129">
         <v>0</v>
@@ -6647,19 +7034,22 @@
       <c r="W129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="X129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I130">
         <v>129</v>
       </c>
       <c r="J130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K130">
         <v>44</v>
@@ -6668,13 +7058,13 @@
         <v>87</v>
       </c>
       <c r="M130" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N130" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q130" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -6688,19 +7078,22 @@
       <c r="W130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="X130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I131">
         <v>130</v>
       </c>
       <c r="J131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K131">
         <v>44</v>
@@ -6709,13 +7102,13 @@
         <v>87</v>
       </c>
       <c r="M131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N131" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q131" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -6729,19 +7122,22 @@
       <c r="W131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I132">
         <v>131</v>
       </c>
       <c r="J132" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K132">
         <v>44</v>
@@ -6750,13 +7146,13 @@
         <v>87</v>
       </c>
       <c r="M132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N132" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q132" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -6770,19 +7166,22 @@
       <c r="W132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I133">
         <v>132</v>
       </c>
       <c r="J133" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K133">
         <v>44</v>
@@ -6791,13 +7190,13 @@
         <v>87</v>
       </c>
       <c r="M133" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N133" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q133" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -6811,19 +7210,22 @@
       <c r="W133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I134">
         <v>133</v>
       </c>
       <c r="J134" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K134">
         <v>44</v>
@@ -6832,13 +7234,13 @@
         <v>87</v>
       </c>
       <c r="M134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N134" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -6852,19 +7254,22 @@
       <c r="W134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I135">
         <v>134</v>
       </c>
       <c r="J135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K135">
         <v>45</v>
@@ -6873,13 +7278,13 @@
         <v>88</v>
       </c>
       <c r="M135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N135" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q135" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T135">
         <v>0</v>
@@ -6893,19 +7298,22 @@
       <c r="W135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="X135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I136">
         <v>135</v>
       </c>
       <c r="J136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K136">
         <v>45</v>
@@ -6914,13 +7322,13 @@
         <v>88</v>
       </c>
       <c r="M136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N136" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q136" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T136">
         <v>0</v>
@@ -6934,19 +7342,22 @@
       <c r="W136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I137">
         <v>136</v>
       </c>
       <c r="J137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K137">
         <v>45</v>
@@ -6955,13 +7366,13 @@
         <v>88</v>
       </c>
       <c r="M137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N137" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q137" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T137">
         <v>0</v>
@@ -6975,19 +7386,22 @@
       <c r="W137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I138">
         <v>137</v>
       </c>
       <c r="J138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K138">
         <v>46</v>
@@ -6996,13 +7410,13 @@
         <v>90</v>
       </c>
       <c r="M138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N138" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T138">
         <v>0</v>
@@ -7016,19 +7430,22 @@
       <c r="W138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I139">
         <v>138</v>
       </c>
       <c r="J139" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K139">
         <v>46</v>
@@ -7037,13 +7454,13 @@
         <v>90</v>
       </c>
       <c r="M139" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N139" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q139" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T139">
         <v>0</v>
@@ -7057,19 +7474,22 @@
       <c r="W139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I140">
         <v>139</v>
       </c>
       <c r="J140" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K140">
         <v>46</v>
@@ -7078,13 +7498,13 @@
         <v>90</v>
       </c>
       <c r="M140" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N140" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q140" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T140">
         <v>0</v>
@@ -7098,19 +7518,22 @@
       <c r="W140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="X140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I141">
         <v>140</v>
       </c>
       <c r="J141" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K141">
         <v>46</v>
@@ -7119,13 +7542,13 @@
         <v>90</v>
       </c>
       <c r="M141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N141" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q141" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T141">
         <v>0</v>
@@ -7139,19 +7562,22 @@
       <c r="W141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I142">
         <v>141</v>
       </c>
       <c r="J142" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K142">
         <v>46</v>
@@ -7160,13 +7586,13 @@
         <v>90</v>
       </c>
       <c r="M142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N142" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T142">
         <v>0</v>
@@ -7180,19 +7606,22 @@
       <c r="W142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I143">
         <v>142</v>
       </c>
       <c r="J143" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K143">
         <v>46</v>
@@ -7201,13 +7630,13 @@
         <v>90</v>
       </c>
       <c r="M143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N143" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q143" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T143">
         <v>0</v>
@@ -7221,19 +7650,22 @@
       <c r="W143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="X143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I144">
         <v>143</v>
       </c>
       <c r="J144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K144">
         <v>46</v>
@@ -7242,13 +7674,13 @@
         <v>90</v>
       </c>
       <c r="M144" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N144" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q144" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T144">
         <v>0</v>
@@ -7262,19 +7694,22 @@
       <c r="W144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I145">
         <v>144</v>
       </c>
       <c r="J145" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K145">
         <v>46</v>
@@ -7283,13 +7718,13 @@
         <v>90</v>
       </c>
       <c r="M145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N145" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q145" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T145">
         <v>0</v>
@@ -7303,19 +7738,22 @@
       <c r="W145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="X145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I146">
         <v>145</v>
       </c>
       <c r="J146" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K146">
         <v>46</v>
@@ -7324,13 +7762,13 @@
         <v>90</v>
       </c>
       <c r="M146" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N146" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q146" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T146">
         <v>0</v>
@@ -7344,19 +7782,22 @@
       <c r="W146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="X146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I147">
         <v>146</v>
       </c>
       <c r="J147" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K147">
         <v>46</v>
@@ -7365,13 +7806,13 @@
         <v>90</v>
       </c>
       <c r="M147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N147" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q147" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T147">
         <v>0</v>
@@ -7385,19 +7826,22 @@
       <c r="W147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I148">
         <v>147</v>
       </c>
       <c r="J148" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K148">
         <v>47</v>
@@ -7406,13 +7850,13 @@
         <v>91</v>
       </c>
       <c r="M148" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N148" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q148" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T148">
         <v>0</v>
@@ -7426,19 +7870,22 @@
       <c r="W148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I149">
         <v>148</v>
       </c>
       <c r="J149" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K149">
         <v>48</v>
@@ -7447,13 +7894,13 @@
         <v>92</v>
       </c>
       <c r="M149" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N149" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Q149" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T149">
         <v>0</v>
@@ -7467,19 +7914,22 @@
       <c r="W149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I150">
         <v>149</v>
       </c>
       <c r="J150" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K150">
         <v>49</v>
@@ -7488,13 +7938,13 @@
         <v>93</v>
       </c>
       <c r="M150" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N150" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q150" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T150">
         <v>0</v>
@@ -7508,19 +7958,22 @@
       <c r="W150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I151">
         <v>150</v>
       </c>
       <c r="J151" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K151">
         <v>49</v>
@@ -7529,13 +7982,13 @@
         <v>93</v>
       </c>
       <c r="M151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N151" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q151" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T151">
         <v>0</v>
@@ -7549,19 +8002,22 @@
       <c r="W151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I152">
         <v>151</v>
       </c>
       <c r="J152" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K152">
         <v>49</v>
@@ -7570,13 +8026,13 @@
         <v>93</v>
       </c>
       <c r="M152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N152" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T152">
         <v>0</v>
@@ -7590,19 +8046,22 @@
       <c r="W152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I153">
         <v>152</v>
       </c>
       <c r="J153" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K153">
         <v>49</v>
@@ -7611,13 +8070,13 @@
         <v>93</v>
       </c>
       <c r="M153" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N153" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q153" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T153">
         <v>0</v>
@@ -7631,19 +8090,22 @@
       <c r="W153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I154">
         <v>153</v>
       </c>
       <c r="J154" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K154">
         <v>49</v>
@@ -7652,13 +8114,13 @@
         <v>93</v>
       </c>
       <c r="M154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N154" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q154" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T154">
         <v>0</v>
@@ -7672,19 +8134,22 @@
       <c r="W154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I155">
         <v>154</v>
       </c>
       <c r="J155" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K155">
         <v>49</v>
@@ -7693,13 +8158,13 @@
         <v>93</v>
       </c>
       <c r="M155" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N155" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T155">
         <v>0</v>
@@ -7713,19 +8178,22 @@
       <c r="W155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="X155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I156">
         <v>155</v>
       </c>
       <c r="J156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K156">
         <v>49</v>
@@ -7734,13 +8202,13 @@
         <v>93</v>
       </c>
       <c r="M156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N156" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T156">
         <v>0</v>
@@ -7754,19 +8222,22 @@
       <c r="W156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I157">
         <v>156</v>
       </c>
       <c r="J157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K157">
         <v>50</v>
@@ -7775,13 +8246,13 @@
         <v>94</v>
       </c>
       <c r="M157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N157" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Q157" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T157">
         <v>0</v>
@@ -7795,19 +8266,22 @@
       <c r="W157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I158">
         <v>157</v>
       </c>
       <c r="J158" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K158">
         <v>50</v>
@@ -7816,13 +8290,13 @@
         <v>94</v>
       </c>
       <c r="M158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N158" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Q158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T158">
         <v>0</v>
@@ -7836,19 +8310,22 @@
       <c r="W158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I159">
         <v>158</v>
       </c>
       <c r="J159" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K159">
         <v>51</v>
@@ -7857,13 +8334,13 @@
         <v>95</v>
       </c>
       <c r="M159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N159" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T159">
         <v>0</v>
@@ -7877,19 +8354,22 @@
       <c r="W159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I160">
         <v>159</v>
       </c>
       <c r="J160" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K160">
         <v>52</v>
@@ -7898,13 +8378,13 @@
         <v>96</v>
       </c>
       <c r="M160" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N160" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Q160" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T160">
         <v>0</v>
@@ -7918,19 +8398,22 @@
       <c r="W160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I161">
         <v>160</v>
       </c>
       <c r="J161" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K161">
         <v>53</v>
@@ -7939,13 +8422,13 @@
         <v>98</v>
       </c>
       <c r="M161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N161" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q161" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T161">
         <v>0</v>
@@ -7959,19 +8442,22 @@
       <c r="W161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I162">
         <v>161</v>
       </c>
       <c r="J162" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K162">
         <v>53</v>
@@ -7980,13 +8466,13 @@
         <v>98</v>
       </c>
       <c r="M162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N162" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q162" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T162">
         <v>0</v>
@@ -8000,19 +8486,22 @@
       <c r="W162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I163">
         <v>162</v>
       </c>
       <c r="J163" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K163">
         <v>53</v>
@@ -8021,13 +8510,13 @@
         <v>98</v>
       </c>
       <c r="M163" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N163" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q163" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T163">
         <v>0</v>
@@ -8041,19 +8530,22 @@
       <c r="W163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="X163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I164">
         <v>163</v>
       </c>
       <c r="J164" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K164">
         <v>54</v>
@@ -8062,13 +8554,13 @@
         <v>99</v>
       </c>
       <c r="M164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N164" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T164">
         <v>0</v>
@@ -8082,19 +8574,22 @@
       <c r="W164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="X164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I165">
         <v>164</v>
       </c>
       <c r="J165" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K165">
         <v>54</v>
@@ -8103,13 +8598,13 @@
         <v>99</v>
       </c>
       <c r="M165" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N165" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q165" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T165">
         <v>0</v>
@@ -8123,19 +8618,22 @@
       <c r="W165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="X165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I166">
         <v>165</v>
       </c>
       <c r="J166" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K166">
         <v>54</v>
@@ -8144,13 +8642,13 @@
         <v>99</v>
       </c>
       <c r="M166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N166" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T166">
         <v>0</v>
@@ -8164,19 +8662,22 @@
       <c r="W166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I167">
         <v>166</v>
       </c>
       <c r="J167" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K167">
         <v>54</v>
@@ -8185,13 +8686,13 @@
         <v>99</v>
       </c>
       <c r="M167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N167" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T167">
         <v>0</v>
@@ -8205,19 +8706,22 @@
       <c r="W167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I168">
         <v>167</v>
       </c>
       <c r="J168" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K168">
         <v>54</v>
@@ -8226,13 +8730,13 @@
         <v>99</v>
       </c>
       <c r="M168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N168" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q168" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -8246,19 +8750,22 @@
       <c r="W168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I169">
         <v>168</v>
       </c>
       <c r="J169" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K169">
         <v>54</v>
@@ -8267,13 +8774,13 @@
         <v>99</v>
       </c>
       <c r="M169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N169" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T169">
         <v>0</v>
@@ -8287,19 +8794,22 @@
       <c r="W169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I170">
         <v>169</v>
       </c>
       <c r="J170" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K170">
         <v>54</v>
@@ -8308,13 +8818,13 @@
         <v>99</v>
       </c>
       <c r="M170" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N170" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q170" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T170">
         <v>0</v>
@@ -8328,19 +8838,22 @@
       <c r="W170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="X170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I171">
         <v>170</v>
       </c>
       <c r="J171" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K171">
         <v>54</v>
@@ -8349,13 +8862,13 @@
         <v>99</v>
       </c>
       <c r="M171" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N171" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q171" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T171">
         <v>0</v>
@@ -8369,19 +8882,22 @@
       <c r="W171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I172">
         <v>171</v>
       </c>
       <c r="J172" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K172">
         <v>55</v>
@@ -8390,13 +8906,13 @@
         <v>100</v>
       </c>
       <c r="M172" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N172" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q172" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T172">
         <v>0</v>
@@ -8410,19 +8926,22 @@
       <c r="W172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I173">
         <v>172</v>
       </c>
       <c r="J173" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K173">
         <v>55</v>
@@ -8431,13 +8950,13 @@
         <v>100</v>
       </c>
       <c r="M173" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N173" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q173" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T173">
         <v>0</v>
@@ -8451,19 +8970,22 @@
       <c r="W173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I174">
         <v>173</v>
       </c>
       <c r="J174" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K174">
         <v>56</v>
@@ -8472,13 +8994,13 @@
         <v>101</v>
       </c>
       <c r="M174" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N174" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q174" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T174">
         <v>0</v>
@@ -8492,19 +9014,22 @@
       <c r="W174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="X174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I175">
         <v>174</v>
       </c>
       <c r="J175" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K175">
         <v>56</v>
@@ -8513,13 +9038,13 @@
         <v>101</v>
       </c>
       <c r="M175" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N175" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q175" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T175">
         <v>0</v>
@@ -8533,19 +9058,22 @@
       <c r="W175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="X175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I176">
         <v>175</v>
       </c>
       <c r="J176" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K176">
         <v>56</v>
@@ -8554,13 +9082,13 @@
         <v>101</v>
       </c>
       <c r="M176" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N176" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q176" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T176">
         <v>0</v>
@@ -8574,19 +9102,22 @@
       <c r="W176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I177">
         <v>176</v>
       </c>
       <c r="J177" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K177">
         <v>56</v>
@@ -8595,13 +9126,13 @@
         <v>101</v>
       </c>
       <c r="M177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N177" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q177" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T177">
         <v>0</v>
@@ -8615,19 +9146,22 @@
       <c r="W177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I178">
         <v>177</v>
       </c>
       <c r="J178" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K178">
         <v>57</v>
@@ -8636,13 +9170,13 @@
         <v>102</v>
       </c>
       <c r="M178" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N178" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Q178" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T178">
         <v>0</v>
@@ -8656,19 +9190,22 @@
       <c r="W178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I179">
         <v>178</v>
       </c>
       <c r="J179" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K179">
         <v>58</v>
@@ -8677,13 +9214,13 @@
         <v>103</v>
       </c>
       <c r="M179" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N179" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Q179" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T179">
         <v>0</v>
@@ -8697,19 +9234,22 @@
       <c r="W179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I180">
         <v>179</v>
       </c>
       <c r="J180" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K180">
         <v>59</v>
@@ -8718,13 +9258,13 @@
         <v>104</v>
       </c>
       <c r="M180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N180" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q180" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T180">
         <v>0</v>
@@ -8738,19 +9278,22 @@
       <c r="W180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I181">
         <v>180</v>
       </c>
       <c r="J181" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K181">
         <v>59</v>
@@ -8759,13 +9302,13 @@
         <v>104</v>
       </c>
       <c r="M181" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N181" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q181" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T181">
         <v>0</v>
@@ -8779,19 +9322,22 @@
       <c r="W181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="X181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I182">
         <v>181</v>
       </c>
       <c r="J182" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K182">
         <v>59</v>
@@ -8800,13 +9346,13 @@
         <v>104</v>
       </c>
       <c r="M182" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N182" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T182">
         <v>0</v>
@@ -8820,19 +9366,22 @@
       <c r="W182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="X182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I183">
         <v>182</v>
       </c>
       <c r="J183" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K183">
         <v>60</v>
@@ -8841,13 +9390,13 @@
         <v>105</v>
       </c>
       <c r="M183" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N183" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Q183" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T183">
         <v>0</v>
@@ -8861,19 +9410,22 @@
       <c r="W183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="X183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I184">
         <v>183</v>
       </c>
       <c r="J184" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K184">
         <v>61</v>
@@ -8882,13 +9434,13 @@
         <v>106</v>
       </c>
       <c r="M184" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N184" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q184" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T184">
         <v>0</v>
@@ -8902,19 +9454,22 @@
       <c r="W184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="X184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I185">
         <v>184</v>
       </c>
       <c r="J185" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K185">
         <v>62</v>
@@ -8923,13 +9478,13 @@
         <v>107</v>
       </c>
       <c r="M185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N185" s="2">
         <v>45045.17372685186</v>
       </c>
       <c r="Q185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T185">
         <v>0</v>
@@ -8943,19 +9498,22 @@
       <c r="W185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="X185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B186" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I186">
         <v>185</v>
       </c>
       <c r="J186" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K186">
         <v>63</v>
@@ -8964,13 +9522,13 @@
         <v>109</v>
       </c>
       <c r="M186" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N186" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="Q186" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T186">
         <v>0</v>
@@ -8984,19 +9542,22 @@
       <c r="W186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B187" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I187">
         <v>186</v>
       </c>
       <c r="J187" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K187">
         <v>64</v>
@@ -9005,13 +9566,13 @@
         <v>110</v>
       </c>
       <c r="M187" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N187" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Q187" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T187">
         <v>0</v>
@@ -9025,19 +9586,22 @@
       <c r="W187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="X187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B188" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I188">
         <v>187</v>
       </c>
       <c r="J188" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K188">
         <v>64</v>
@@ -9046,13 +9610,13 @@
         <v>110</v>
       </c>
       <c r="M188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N188" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Q188" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T188">
         <v>0</v>
@@ -9066,19 +9630,22 @@
       <c r="W188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="X188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B189" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I189">
         <v>188</v>
       </c>
       <c r="J189" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K189">
         <v>65</v>
@@ -9087,13 +9654,13 @@
         <v>111</v>
       </c>
       <c r="M189" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N189" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Q189" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T189">
         <v>0</v>
@@ -9107,19 +9674,22 @@
       <c r="W189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="X189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B190" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I190">
         <v>189</v>
       </c>
       <c r="J190" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K190">
         <v>66</v>
@@ -9128,13 +9698,13 @@
         <v>113</v>
       </c>
       <c r="M190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N190" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Q190" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T190">
         <v>0</v>
@@ -9148,19 +9718,22 @@
       <c r="W190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="X190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I191">
         <v>190</v>
       </c>
       <c r="J191" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K191">
         <v>67</v>
@@ -9169,13 +9742,13 @@
         <v>114</v>
       </c>
       <c r="M191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N191" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="Q191" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T191">
         <v>0</v>
@@ -9189,19 +9762,22 @@
       <c r="W191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="X191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I192">
         <v>191</v>
       </c>
       <c r="J192" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K192">
         <v>68</v>
@@ -9210,13 +9786,13 @@
         <v>115</v>
       </c>
       <c r="M192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N192" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Q192" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T192">
         <v>0</v>
@@ -9230,19 +9806,22 @@
       <c r="W192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="X192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B193" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I193">
         <v>192</v>
       </c>
       <c r="J193" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K193">
         <v>69</v>
@@ -9251,13 +9830,13 @@
         <v>117</v>
       </c>
       <c r="M193" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N193" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="Q193" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T193">
         <v>0</v>
@@ -9271,19 +9850,22 @@
       <c r="W193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="X193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B194" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I194">
         <v>193</v>
       </c>
       <c r="J194" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K194">
         <v>70</v>
@@ -9292,13 +9874,13 @@
         <v>118</v>
       </c>
       <c r="M194" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N194" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="Q194" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T194">
         <v>0</v>
@@ -9312,19 +9894,22 @@
       <c r="W194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B195" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I195">
         <v>194</v>
       </c>
       <c r="J195" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K195">
         <v>71</v>
@@ -9333,13 +9918,13 @@
         <v>119</v>
       </c>
       <c r="M195" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N195" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q195" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T195">
         <v>0</v>
@@ -9353,19 +9938,22 @@
       <c r="W195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="X195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B196" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I196">
         <v>195</v>
       </c>
       <c r="J196" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K196">
         <v>71</v>
@@ -9374,13 +9962,13 @@
         <v>119</v>
       </c>
       <c r="M196" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N196" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q196" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T196">
         <v>0</v>
@@ -9394,19 +9982,22 @@
       <c r="W196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I197">
         <v>196</v>
       </c>
       <c r="J197" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K197">
         <v>71</v>
@@ -9415,13 +10006,13 @@
         <v>119</v>
       </c>
       <c r="M197" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N197" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q197" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T197">
         <v>0</v>
@@ -9435,19 +10026,22 @@
       <c r="W197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="X197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B198" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I198">
         <v>197</v>
       </c>
       <c r="J198" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K198">
         <v>71</v>
@@ -9456,13 +10050,13 @@
         <v>119</v>
       </c>
       <c r="M198" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N198" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q198" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T198">
         <v>0</v>
@@ -9476,19 +10070,22 @@
       <c r="W198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I199">
         <v>198</v>
       </c>
       <c r="J199" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K199">
         <v>71</v>
@@ -9497,13 +10094,13 @@
         <v>119</v>
       </c>
       <c r="M199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N199" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q199" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T199">
         <v>0</v>
@@ -9517,19 +10114,22 @@
       <c r="W199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="X199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I200">
         <v>199</v>
       </c>
       <c r="J200" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K200">
         <v>71</v>
@@ -9538,13 +10138,13 @@
         <v>119</v>
       </c>
       <c r="M200" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N200" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q200" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T200">
         <v>0</v>
@@ -9558,19 +10158,22 @@
       <c r="W200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="X200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B201" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I201">
         <v>200</v>
       </c>
       <c r="J201" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K201">
         <v>71</v>
@@ -9579,13 +10182,13 @@
         <v>119</v>
       </c>
       <c r="M201" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N201" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q201" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T201">
         <v>0</v>
@@ -9599,19 +10202,22 @@
       <c r="W201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="X201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B202" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I202">
         <v>201</v>
       </c>
       <c r="J202" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K202">
         <v>71</v>
@@ -9620,13 +10226,13 @@
         <v>119</v>
       </c>
       <c r="M202" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N202" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q202" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T202">
         <v>0</v>
@@ -9640,19 +10246,22 @@
       <c r="W202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="X202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B203" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I203">
         <v>202</v>
       </c>
       <c r="J203" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K203">
         <v>71</v>
@@ -9661,13 +10270,13 @@
         <v>119</v>
       </c>
       <c r="M203" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N203" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q203" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T203">
         <v>0</v>
@@ -9681,19 +10290,22 @@
       <c r="W203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B204" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I204">
         <v>203</v>
       </c>
       <c r="J204" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K204">
         <v>71</v>
@@ -9702,13 +10314,13 @@
         <v>119</v>
       </c>
       <c r="M204" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N204" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q204" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T204">
         <v>0</v>
@@ -9722,19 +10334,22 @@
       <c r="W204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="X204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B205" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I205">
         <v>204</v>
       </c>
       <c r="J205" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K205">
         <v>71</v>
@@ -9743,13 +10358,13 @@
         <v>119</v>
       </c>
       <c r="M205" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N205" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q205" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T205">
         <v>0</v>
@@ -9763,19 +10378,22 @@
       <c r="W205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="X205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B206" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I206">
         <v>205</v>
       </c>
       <c r="J206" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K206">
         <v>71</v>
@@ -9784,13 +10402,13 @@
         <v>119</v>
       </c>
       <c r="M206" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N206" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T206">
         <v>0</v>
@@ -9804,19 +10422,22 @@
       <c r="W206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:23">
+      <c r="X206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B207" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I207">
         <v>206</v>
       </c>
       <c r="J207" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K207">
         <v>71</v>
@@ -9825,13 +10446,13 @@
         <v>119</v>
       </c>
       <c r="M207" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N207" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q207" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T207">
         <v>0</v>
@@ -9845,19 +10466,22 @@
       <c r="W207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="X207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B208" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I208">
         <v>207</v>
       </c>
       <c r="J208" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K208">
         <v>71</v>
@@ -9866,13 +10490,13 @@
         <v>119</v>
       </c>
       <c r="M208" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N208" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q208" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T208">
         <v>0</v>
@@ -9886,19 +10510,22 @@
       <c r="W208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:23">
+      <c r="X208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I209">
         <v>208</v>
       </c>
       <c r="J209" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K209">
         <v>71</v>
@@ -9907,13 +10534,13 @@
         <v>119</v>
       </c>
       <c r="M209" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N209" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q209" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T209">
         <v>0</v>
@@ -9927,19 +10554,22 @@
       <c r="W209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:23">
+      <c r="X209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B210" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I210">
         <v>209</v>
       </c>
       <c r="J210" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K210">
         <v>71</v>
@@ -9948,13 +10578,13 @@
         <v>119</v>
       </c>
       <c r="M210" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N210" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q210" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T210">
         <v>0</v>
@@ -9968,19 +10598,22 @@
       <c r="W210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:23">
+      <c r="X210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B211" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I211">
         <v>210</v>
       </c>
       <c r="J211" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K211">
         <v>71</v>
@@ -9989,13 +10622,13 @@
         <v>119</v>
       </c>
       <c r="M211" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N211" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q211" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T211">
         <v>0</v>
@@ -10009,19 +10642,22 @@
       <c r="W211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="X211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B212" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I212">
         <v>211</v>
       </c>
       <c r="J212" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K212">
         <v>71</v>
@@ -10030,13 +10666,13 @@
         <v>119</v>
       </c>
       <c r="M212" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N212" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q212" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T212">
         <v>0</v>
@@ -10050,19 +10686,22 @@
       <c r="W212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="X212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B213" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I213">
         <v>212</v>
       </c>
       <c r="J213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K213">
         <v>71</v>
@@ -10071,13 +10710,13 @@
         <v>119</v>
       </c>
       <c r="M213" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N213" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q213" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T213">
         <v>0</v>
@@ -10091,19 +10730,22 @@
       <c r="W213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:23">
+      <c r="X213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B214" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I214">
         <v>213</v>
       </c>
       <c r="J214" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K214">
         <v>71</v>
@@ -10112,13 +10754,13 @@
         <v>119</v>
       </c>
       <c r="M214" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N214" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q214" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T214">
         <v>0</v>
@@ -10130,6 +10772,9 @@
         <v>0</v>
       </c>
       <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="313">
   <si>
     <t>p18_act</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>REUNIONES</t>
@@ -1326,13 +1329,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X214"/>
+  <dimension ref="A1:Y214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,19 +1408,22 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1426,13 +1432,13 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="Q2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1449,19 +1455,22 @@
       <c r="X2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1470,13 +1479,13 @@
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Q3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1493,19 +1502,22 @@
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1514,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Q4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1537,19 +1549,22 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1558,13 +1573,13 @@
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Q5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1581,19 +1596,22 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1602,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1625,19 +1643,22 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1646,13 +1667,13 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1669,19 +1690,22 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1690,13 +1714,13 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1713,19 +1737,22 @@
       <c r="X8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1734,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1757,19 +1784,22 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1778,13 +1808,13 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1801,19 +1831,22 @@
       <c r="X10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1822,13 +1855,13 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N11" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1845,19 +1878,22 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -1866,13 +1902,13 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1889,19 +1925,22 @@
       <c r="X12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1910,13 +1949,13 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1933,19 +1972,22 @@
       <c r="X13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1954,13 +1996,13 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1977,19 +2019,22 @@
       <c r="X14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -1998,13 +2043,13 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2021,19 +2066,22 @@
       <c r="X15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -2042,13 +2090,13 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N16" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2065,19 +2113,22 @@
       <c r="X16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2086,13 +2137,13 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N17" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2109,19 +2160,22 @@
       <c r="X17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2130,13 +2184,13 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N18" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2153,19 +2207,22 @@
       <c r="X18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2174,13 +2231,13 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N19" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2197,19 +2254,22 @@
       <c r="X19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K20">
         <v>11</v>
@@ -2218,13 +2278,13 @@
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2241,19 +2301,22 @@
       <c r="X20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K21">
         <v>11</v>
@@ -2262,13 +2325,13 @@
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2285,19 +2348,22 @@
       <c r="X21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2306,13 +2372,13 @@
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2329,19 +2395,22 @@
       <c r="X22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K23">
         <v>11</v>
@@ -2350,13 +2419,13 @@
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2373,19 +2442,22 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2394,13 +2466,13 @@
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2417,19 +2489,22 @@
       <c r="X24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -2438,13 +2513,13 @@
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2461,19 +2536,22 @@
       <c r="X25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -2482,13 +2560,13 @@
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2505,19 +2583,22 @@
       <c r="X26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -2526,13 +2607,13 @@
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2549,19 +2630,22 @@
       <c r="X27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K28">
         <v>12</v>
@@ -2570,13 +2654,13 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N28" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2593,19 +2677,22 @@
       <c r="X28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -2614,13 +2701,13 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N29" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2637,19 +2724,22 @@
       <c r="X29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K30">
         <v>12</v>
@@ -2658,13 +2748,13 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N30" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2681,19 +2771,22 @@
       <c r="X30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K31">
         <v>13</v>
@@ -2702,13 +2795,13 @@
         <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N31" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Q31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2725,19 +2818,22 @@
       <c r="X31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -2746,13 +2842,13 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Q32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2769,19 +2865,22 @@
       <c r="X32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K33">
         <v>14</v>
@@ -2790,13 +2889,13 @@
         <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Q33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -2813,19 +2912,22 @@
       <c r="X33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K34">
         <v>14</v>
@@ -2834,13 +2936,13 @@
         <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N34" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Q34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -2857,19 +2959,22 @@
       <c r="X34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K35">
         <v>15</v>
@@ -2878,13 +2983,13 @@
         <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N35" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -2901,19 +3006,22 @@
       <c r="X35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -2922,13 +3030,13 @@
         <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N36" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -2945,19 +3053,22 @@
       <c r="X36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K37">
         <v>16</v>
@@ -2966,13 +3077,13 @@
         <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Q37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -2989,19 +3100,22 @@
       <c r="X37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K38">
         <v>17</v>
@@ -3010,13 +3124,13 @@
         <v>26</v>
       </c>
       <c r="M38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N38" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Q38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3033,19 +3147,22 @@
       <c r="X38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K39">
         <v>18</v>
@@ -3054,13 +3171,13 @@
         <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N39" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3077,19 +3194,22 @@
       <c r="X39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -3098,13 +3218,13 @@
         <v>30</v>
       </c>
       <c r="M40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N40" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3121,19 +3241,22 @@
       <c r="X40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K41">
         <v>19</v>
@@ -3142,13 +3265,13 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3165,19 +3288,22 @@
       <c r="X41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K42">
         <v>19</v>
@@ -3186,13 +3312,13 @@
         <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N42" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3209,19 +3335,22 @@
       <c r="X42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K43">
         <v>19</v>
@@ -3230,13 +3359,13 @@
         <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N43" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -3253,19 +3382,22 @@
       <c r="X43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K44">
         <v>19</v>
@@ -3274,13 +3406,13 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N44" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q44" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -3297,19 +3429,22 @@
       <c r="X44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K45">
         <v>20</v>
@@ -3318,13 +3453,13 @@
         <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N45" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Q45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -3341,19 +3476,22 @@
       <c r="X45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K46">
         <v>21</v>
@@ -3362,13 +3500,13 @@
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N46" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -3385,19 +3523,22 @@
       <c r="X46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K47">
         <v>22</v>
@@ -3406,13 +3547,13 @@
         <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N47" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -3429,19 +3570,22 @@
       <c r="X47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K48">
         <v>22</v>
@@ -3450,13 +3594,13 @@
         <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N48" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -3473,19 +3617,22 @@
       <c r="X48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K49">
         <v>22</v>
@@ -3494,13 +3641,13 @@
         <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N49" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -3517,19 +3664,22 @@
       <c r="X49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K50">
         <v>23</v>
@@ -3538,13 +3688,13 @@
         <v>38</v>
       </c>
       <c r="M50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -3561,19 +3711,22 @@
       <c r="X50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K51">
         <v>23</v>
@@ -3582,13 +3735,13 @@
         <v>38</v>
       </c>
       <c r="M51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q51" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -3605,19 +3758,22 @@
       <c r="X51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K52">
         <v>23</v>
@@ -3626,13 +3782,13 @@
         <v>38</v>
       </c>
       <c r="M52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q52" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -3649,19 +3805,22 @@
       <c r="X52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Y52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K53">
         <v>23</v>
@@ -3670,13 +3829,13 @@
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q53" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -3693,19 +3852,22 @@
       <c r="X53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K54">
         <v>23</v>
@@ -3714,13 +3876,13 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -3737,19 +3899,22 @@
       <c r="X54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K55">
         <v>23</v>
@@ -3758,13 +3923,13 @@
         <v>38</v>
       </c>
       <c r="M55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -3781,19 +3946,22 @@
       <c r="X55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K56">
         <v>23</v>
@@ -3802,13 +3970,13 @@
         <v>38</v>
       </c>
       <c r="M56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -3825,19 +3993,22 @@
       <c r="X56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K57">
         <v>24</v>
@@ -3846,13 +4017,13 @@
         <v>51</v>
       </c>
       <c r="M57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -3869,19 +4040,22 @@
       <c r="X57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K58">
         <v>24</v>
@@ -3890,13 +4064,13 @@
         <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -3913,19 +4087,22 @@
       <c r="X58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Y58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K59">
         <v>24</v>
@@ -3934,13 +4111,13 @@
         <v>51</v>
       </c>
       <c r="M59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -3957,19 +4134,22 @@
       <c r="X59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K60">
         <v>24</v>
@@ -3978,13 +4158,13 @@
         <v>51</v>
       </c>
       <c r="M60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4001,19 +4181,22 @@
       <c r="X60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K61">
         <v>24</v>
@@ -4022,13 +4205,13 @@
         <v>51</v>
       </c>
       <c r="M61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4045,19 +4228,22 @@
       <c r="X61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K62">
         <v>24</v>
@@ -4066,13 +4252,13 @@
         <v>51</v>
       </c>
       <c r="M62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4089,19 +4275,22 @@
       <c r="X62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Y62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K63">
         <v>24</v>
@@ -4110,13 +4299,13 @@
         <v>51</v>
       </c>
       <c r="M63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4133,19 +4322,22 @@
       <c r="X63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Y63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K64">
         <v>25</v>
@@ -4154,13 +4346,13 @@
         <v>52</v>
       </c>
       <c r="M64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N64" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Q64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -4177,19 +4369,22 @@
       <c r="X64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Y64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K65">
         <v>26</v>
@@ -4198,13 +4393,13 @@
         <v>55</v>
       </c>
       <c r="M65" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N65" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Q65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -4221,19 +4416,22 @@
       <c r="X65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Y65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K66">
         <v>27</v>
@@ -4242,13 +4440,13 @@
         <v>56</v>
       </c>
       <c r="M66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N66" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -4265,19 +4463,22 @@
       <c r="X66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="Y66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K67">
         <v>28</v>
@@ -4286,13 +4487,13 @@
         <v>57</v>
       </c>
       <c r="M67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N67" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -4309,19 +4510,22 @@
       <c r="X67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="Y67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K68">
         <v>28</v>
@@ -4330,13 +4534,13 @@
         <v>57</v>
       </c>
       <c r="M68" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -4353,19 +4557,22 @@
       <c r="X68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K69">
         <v>28</v>
@@ -4374,13 +4581,13 @@
         <v>57</v>
       </c>
       <c r="M69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q69" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -4397,19 +4604,22 @@
       <c r="X69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K70">
         <v>28</v>
@@ -4418,13 +4628,13 @@
         <v>57</v>
       </c>
       <c r="M70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -4441,19 +4651,22 @@
       <c r="X70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K71">
         <v>28</v>
@@ -4462,13 +4675,13 @@
         <v>57</v>
       </c>
       <c r="M71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -4485,19 +4698,22 @@
       <c r="X71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Y71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K72">
         <v>28</v>
@@ -4506,13 +4722,13 @@
         <v>57</v>
       </c>
       <c r="M72" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N72" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q72" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -4529,19 +4745,22 @@
       <c r="X72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K73">
         <v>29</v>
@@ -4550,13 +4769,13 @@
         <v>58</v>
       </c>
       <c r="M73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N73" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -4573,19 +4792,22 @@
       <c r="X73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Y73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K74">
         <v>29</v>
@@ -4594,13 +4816,13 @@
         <v>58</v>
       </c>
       <c r="M74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N74" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -4617,19 +4839,22 @@
       <c r="X74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K75">
         <v>29</v>
@@ -4638,13 +4863,13 @@
         <v>58</v>
       </c>
       <c r="M75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N75" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q75" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -4661,19 +4886,22 @@
       <c r="X75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K76">
         <v>30</v>
@@ -4682,13 +4910,13 @@
         <v>59</v>
       </c>
       <c r="M76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q76" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -4705,19 +4933,22 @@
       <c r="X76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Y76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K77">
         <v>30</v>
@@ -4726,13 +4957,13 @@
         <v>59</v>
       </c>
       <c r="M77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q77" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -4749,19 +4980,22 @@
       <c r="X77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="Y77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K78">
         <v>30</v>
@@ -4770,13 +5004,13 @@
         <v>59</v>
       </c>
       <c r="M78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -4793,19 +5027,22 @@
       <c r="X78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="Y78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K79">
         <v>30</v>
@@ -4814,13 +5051,13 @@
         <v>59</v>
       </c>
       <c r="M79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q79" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -4837,19 +5074,22 @@
       <c r="X79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="Y79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K80">
         <v>30</v>
@@ -4858,13 +5098,13 @@
         <v>59</v>
       </c>
       <c r="M80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q80" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -4881,19 +5121,22 @@
       <c r="X80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="Y80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K81">
         <v>30</v>
@@ -4902,13 +5145,13 @@
         <v>59</v>
       </c>
       <c r="M81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q81" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -4925,19 +5168,22 @@
       <c r="X81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="Y81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K82">
         <v>30</v>
@@ -4946,13 +5192,13 @@
         <v>59</v>
       </c>
       <c r="M82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q82" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -4969,19 +5215,22 @@
       <c r="X82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K83">
         <v>30</v>
@@ -4990,13 +5239,13 @@
         <v>59</v>
       </c>
       <c r="M83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N83" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -5013,19 +5262,22 @@
       <c r="X83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="Y83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I84">
         <v>83</v>
       </c>
       <c r="J84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K84">
         <v>31</v>
@@ -5034,13 +5286,13 @@
         <v>60</v>
       </c>
       <c r="M84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N84" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -5057,19 +5309,22 @@
       <c r="X84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="Y84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I85">
         <v>84</v>
       </c>
       <c r="J85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K85">
         <v>31</v>
@@ -5078,13 +5333,13 @@
         <v>60</v>
       </c>
       <c r="M85" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N85" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q85" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -5101,19 +5356,22 @@
       <c r="X85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="Y85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I86">
         <v>85</v>
       </c>
       <c r="J86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K86">
         <v>32</v>
@@ -5122,13 +5380,13 @@
         <v>61</v>
       </c>
       <c r="M86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N86" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q86" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -5145,19 +5403,22 @@
       <c r="X86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="Y86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I87">
         <v>86</v>
       </c>
       <c r="J87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K87">
         <v>33</v>
@@ -5166,13 +5427,13 @@
         <v>63</v>
       </c>
       <c r="M87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q87" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -5189,19 +5450,22 @@
       <c r="X87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="Y87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I88">
         <v>87</v>
       </c>
       <c r="J88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K88">
         <v>33</v>
@@ -5210,13 +5474,13 @@
         <v>63</v>
       </c>
       <c r="M88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q88" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -5233,19 +5497,22 @@
       <c r="X88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="Y88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I89">
         <v>88</v>
       </c>
       <c r="J89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K89">
         <v>33</v>
@@ -5254,13 +5521,13 @@
         <v>63</v>
       </c>
       <c r="M89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q89" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -5277,19 +5544,22 @@
       <c r="X89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="Y89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I90">
         <v>89</v>
       </c>
       <c r="J90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K90">
         <v>33</v>
@@ -5298,13 +5568,13 @@
         <v>63</v>
       </c>
       <c r="M90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q90" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -5321,19 +5591,22 @@
       <c r="X90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="Y90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I91">
         <v>90</v>
       </c>
       <c r="J91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K91">
         <v>33</v>
@@ -5342,13 +5615,13 @@
         <v>63</v>
       </c>
       <c r="M91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q91" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -5365,19 +5638,22 @@
       <c r="X91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="Y91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I92">
         <v>91</v>
       </c>
       <c r="J92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K92">
         <v>33</v>
@@ -5386,13 +5662,13 @@
         <v>63</v>
       </c>
       <c r="M92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q92" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -5409,19 +5685,22 @@
       <c r="X92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="Y92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I93">
         <v>92</v>
       </c>
       <c r="J93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K93">
         <v>34</v>
@@ -5430,13 +5709,13 @@
         <v>64</v>
       </c>
       <c r="M93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Q93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -5453,19 +5732,22 @@
       <c r="X93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="Y93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I94">
         <v>93</v>
       </c>
       <c r="J94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K94">
         <v>34</v>
@@ -5474,13 +5756,13 @@
         <v>64</v>
       </c>
       <c r="M94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N94" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Q94" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -5497,19 +5779,22 @@
       <c r="X94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="Y94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I95">
         <v>94</v>
       </c>
       <c r="J95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K95">
         <v>35</v>
@@ -5518,13 +5803,13 @@
         <v>75</v>
       </c>
       <c r="M95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N95" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q95" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -5541,19 +5826,22 @@
       <c r="X95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="Y95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I96">
         <v>95</v>
       </c>
       <c r="J96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K96">
         <v>36</v>
@@ -5562,13 +5850,13 @@
         <v>77</v>
       </c>
       <c r="M96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q96" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -5585,19 +5873,22 @@
       <c r="X96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="Y96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I97">
         <v>96</v>
       </c>
       <c r="J97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K97">
         <v>36</v>
@@ -5606,13 +5897,13 @@
         <v>77</v>
       </c>
       <c r="M97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q97" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -5629,19 +5920,22 @@
       <c r="X97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="Y97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I98">
         <v>97</v>
       </c>
       <c r="J98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K98">
         <v>37</v>
@@ -5650,13 +5944,13 @@
         <v>78</v>
       </c>
       <c r="M98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N98" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Q98" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -5673,19 +5967,22 @@
       <c r="X98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="Y98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I99">
         <v>98</v>
       </c>
       <c r="J99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K99">
         <v>38</v>
@@ -5694,13 +5991,13 @@
         <v>80</v>
       </c>
       <c r="M99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N99" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q99" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -5717,19 +6014,22 @@
       <c r="X99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="Y99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I100">
         <v>99</v>
       </c>
       <c r="J100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K100">
         <v>38</v>
@@ -5738,13 +6038,13 @@
         <v>80</v>
       </c>
       <c r="M100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N100" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q100" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -5761,19 +6061,22 @@
       <c r="X100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="Y100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K101">
         <v>38</v>
@@ -5782,13 +6085,13 @@
         <v>80</v>
       </c>
       <c r="M101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N101" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -5805,19 +6108,22 @@
       <c r="X101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="Y101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I102">
         <v>101</v>
       </c>
       <c r="J102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K102">
         <v>38</v>
@@ -5826,13 +6132,13 @@
         <v>80</v>
       </c>
       <c r="M102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N102" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q102" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -5849,19 +6155,22 @@
       <c r="X102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="Y102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I103">
         <v>102</v>
       </c>
       <c r="J103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K103">
         <v>38</v>
@@ -5870,13 +6179,13 @@
         <v>80</v>
       </c>
       <c r="M103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N103" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T103">
         <v>0</v>
@@ -5893,19 +6202,22 @@
       <c r="X103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="Y103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I104">
         <v>103</v>
       </c>
       <c r="J104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K104">
         <v>39</v>
@@ -5914,13 +6226,13 @@
         <v>81</v>
       </c>
       <c r="M104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N104" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -5937,19 +6249,22 @@
       <c r="X104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="Y104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I105">
         <v>104</v>
       </c>
       <c r="J105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K105">
         <v>39</v>
@@ -5958,13 +6273,13 @@
         <v>81</v>
       </c>
       <c r="M105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N105" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q105" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -5981,19 +6296,22 @@
       <c r="X105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="Y105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I106">
         <v>105</v>
       </c>
       <c r="J106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K106">
         <v>39</v>
@@ -6002,13 +6320,13 @@
         <v>81</v>
       </c>
       <c r="M106" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N106" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q106" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T106">
         <v>0</v>
@@ -6025,19 +6343,22 @@
       <c r="X106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:24">
+      <c r="Y106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I107">
         <v>106</v>
       </c>
       <c r="J107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K107">
         <v>39</v>
@@ -6046,13 +6367,13 @@
         <v>81</v>
       </c>
       <c r="M107" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N107" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q107" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -6069,19 +6390,22 @@
       <c r="X107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="Y107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I108">
         <v>107</v>
       </c>
       <c r="J108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K108">
         <v>39</v>
@@ -6090,13 +6414,13 @@
         <v>81</v>
       </c>
       <c r="M108" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q108" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -6113,19 +6437,22 @@
       <c r="X108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="Y108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I109">
         <v>108</v>
       </c>
       <c r="J109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K109">
         <v>39</v>
@@ -6134,13 +6461,13 @@
         <v>81</v>
       </c>
       <c r="M109" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q109" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T109">
         <v>0</v>
@@ -6157,19 +6484,22 @@
       <c r="X109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="Y109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I110">
         <v>109</v>
       </c>
       <c r="J110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K110">
         <v>39</v>
@@ -6178,13 +6508,13 @@
         <v>81</v>
       </c>
       <c r="M110" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q110" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T110">
         <v>0</v>
@@ -6201,19 +6531,22 @@
       <c r="X110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="Y110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I111">
         <v>110</v>
       </c>
       <c r="J111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K111">
         <v>39</v>
@@ -6222,13 +6555,13 @@
         <v>81</v>
       </c>
       <c r="M111" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q111" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -6245,19 +6578,22 @@
       <c r="X111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="Y111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I112">
         <v>111</v>
       </c>
       <c r="J112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K112">
         <v>39</v>
@@ -6266,13 +6602,13 @@
         <v>81</v>
       </c>
       <c r="M112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N112" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q112" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -6289,19 +6625,22 @@
       <c r="X112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="Y112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I113">
         <v>112</v>
       </c>
       <c r="J113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K113">
         <v>39</v>
@@ -6310,13 +6649,13 @@
         <v>81</v>
       </c>
       <c r="M113" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N113" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -6333,19 +6672,22 @@
       <c r="X113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:24">
+      <c r="Y113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I114">
         <v>113</v>
       </c>
       <c r="J114" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K114">
         <v>39</v>
@@ -6354,13 +6696,13 @@
         <v>81</v>
       </c>
       <c r="M114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N114" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q114" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T114">
         <v>0</v>
@@ -6377,19 +6719,22 @@
       <c r="X114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="Y114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I115">
         <v>114</v>
       </c>
       <c r="J115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K115">
         <v>39</v>
@@ -6398,13 +6743,13 @@
         <v>81</v>
       </c>
       <c r="M115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N115" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q115" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -6421,19 +6766,22 @@
       <c r="X115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="Y115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I116">
         <v>115</v>
       </c>
       <c r="J116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K116">
         <v>39</v>
@@ -6442,13 +6790,13 @@
         <v>81</v>
       </c>
       <c r="M116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N116" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q116" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -6465,19 +6813,22 @@
       <c r="X116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:24">
+      <c r="Y116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I117">
         <v>116</v>
       </c>
       <c r="J117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K117">
         <v>40</v>
@@ -6486,13 +6837,13 @@
         <v>82</v>
       </c>
       <c r="M117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N117" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Q117" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T117">
         <v>0</v>
@@ -6509,19 +6860,22 @@
       <c r="X117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:24">
+      <c r="Y117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I118">
         <v>117</v>
       </c>
       <c r="J118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K118">
         <v>40</v>
@@ -6530,13 +6884,13 @@
         <v>82</v>
       </c>
       <c r="M118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N118" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Q118" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -6553,19 +6907,22 @@
       <c r="X118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:24">
+      <c r="Y118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I119">
         <v>118</v>
       </c>
       <c r="J119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K119">
         <v>41</v>
@@ -6574,13 +6931,13 @@
         <v>83</v>
       </c>
       <c r="M119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N119" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="Q119" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T119">
         <v>0</v>
@@ -6597,19 +6954,22 @@
       <c r="X119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:24">
+      <c r="Y119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I120">
         <v>119</v>
       </c>
       <c r="J120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K120">
         <v>42</v>
@@ -6618,13 +6978,13 @@
         <v>84</v>
       </c>
       <c r="M120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N120" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q120" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T120">
         <v>0</v>
@@ -6641,19 +7001,22 @@
       <c r="X120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:24">
+      <c r="Y120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I121">
         <v>120</v>
       </c>
       <c r="J121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K121">
         <v>42</v>
@@ -6662,13 +7025,13 @@
         <v>84</v>
       </c>
       <c r="M121" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N121" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q121" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -6685,19 +7048,22 @@
       <c r="X121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:24">
+      <c r="Y121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B122" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I122">
         <v>121</v>
       </c>
       <c r="J122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K122">
         <v>42</v>
@@ -6706,13 +7072,13 @@
         <v>84</v>
       </c>
       <c r="M122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N122" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q122" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -6729,19 +7095,22 @@
       <c r="X122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:24">
+      <c r="Y122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I123">
         <v>122</v>
       </c>
       <c r="J123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K123">
         <v>42</v>
@@ -6750,13 +7119,13 @@
         <v>84</v>
       </c>
       <c r="M123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N123" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q123" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -6773,19 +7142,22 @@
       <c r="X123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:24">
+      <c r="Y123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I124">
         <v>123</v>
       </c>
       <c r="J124" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K124">
         <v>43</v>
@@ -6794,13 +7166,13 @@
         <v>86</v>
       </c>
       <c r="M124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N124" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="Q124" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -6817,19 +7189,22 @@
       <c r="X124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:24">
+      <c r="Y124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I125">
         <v>124</v>
       </c>
       <c r="J125" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K125">
         <v>44</v>
@@ -6838,13 +7213,13 @@
         <v>87</v>
       </c>
       <c r="M125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N125" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q125" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T125">
         <v>0</v>
@@ -6861,19 +7236,22 @@
       <c r="X125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:24">
+      <c r="Y125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I126">
         <v>125</v>
       </c>
       <c r="J126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K126">
         <v>44</v>
@@ -6882,13 +7260,13 @@
         <v>87</v>
       </c>
       <c r="M126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N126" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -6905,19 +7283,22 @@
       <c r="X126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:24">
+      <c r="Y126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I127">
         <v>126</v>
       </c>
       <c r="J127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K127">
         <v>44</v>
@@ -6926,13 +7307,13 @@
         <v>87</v>
       </c>
       <c r="M127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N127" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -6949,19 +7330,22 @@
       <c r="X127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:24">
+      <c r="Y127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I128">
         <v>127</v>
       </c>
       <c r="J128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K128">
         <v>44</v>
@@ -6970,13 +7354,13 @@
         <v>87</v>
       </c>
       <c r="M128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N128" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q128" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -6993,19 +7377,22 @@
       <c r="X128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:24">
+      <c r="Y128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I129">
         <v>128</v>
       </c>
       <c r="J129" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K129">
         <v>44</v>
@@ -7014,13 +7401,13 @@
         <v>87</v>
       </c>
       <c r="M129" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N129" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q129" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T129">
         <v>0</v>
@@ -7037,19 +7424,22 @@
       <c r="X129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:24">
+      <c r="Y129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I130">
         <v>129</v>
       </c>
       <c r="J130" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K130">
         <v>44</v>
@@ -7058,13 +7448,13 @@
         <v>87</v>
       </c>
       <c r="M130" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N130" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q130" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -7081,19 +7471,22 @@
       <c r="X130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:24">
+      <c r="Y130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B131" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I131">
         <v>130</v>
       </c>
       <c r="J131" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K131">
         <v>44</v>
@@ -7102,13 +7495,13 @@
         <v>87</v>
       </c>
       <c r="M131" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N131" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q131" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -7125,19 +7518,22 @@
       <c r="X131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:24">
+      <c r="Y131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I132">
         <v>131</v>
       </c>
       <c r="J132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K132">
         <v>44</v>
@@ -7146,13 +7542,13 @@
         <v>87</v>
       </c>
       <c r="M132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N132" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q132" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -7169,19 +7565,22 @@
       <c r="X132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:24">
+      <c r="Y132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B133" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I133">
         <v>132</v>
       </c>
       <c r="J133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K133">
         <v>44</v>
@@ -7190,13 +7589,13 @@
         <v>87</v>
       </c>
       <c r="M133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N133" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q133" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -7213,19 +7612,22 @@
       <c r="X133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:24">
+      <c r="Y133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I134">
         <v>133</v>
       </c>
       <c r="J134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K134">
         <v>44</v>
@@ -7234,13 +7636,13 @@
         <v>87</v>
       </c>
       <c r="M134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N134" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q134" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -7257,19 +7659,22 @@
       <c r="X134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:24">
+      <c r="Y134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I135">
         <v>134</v>
       </c>
       <c r="J135" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K135">
         <v>45</v>
@@ -7278,13 +7683,13 @@
         <v>88</v>
       </c>
       <c r="M135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N135" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q135" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T135">
         <v>0</v>
@@ -7301,19 +7706,22 @@
       <c r="X135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:24">
+      <c r="Y135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I136">
         <v>135</v>
       </c>
       <c r="J136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K136">
         <v>45</v>
@@ -7322,13 +7730,13 @@
         <v>88</v>
       </c>
       <c r="M136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N136" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q136" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T136">
         <v>0</v>
@@ -7345,19 +7753,22 @@
       <c r="X136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:24">
+      <c r="Y136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I137">
         <v>136</v>
       </c>
       <c r="J137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K137">
         <v>45</v>
@@ -7366,13 +7777,13 @@
         <v>88</v>
       </c>
       <c r="M137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N137" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q137" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T137">
         <v>0</v>
@@ -7389,19 +7800,22 @@
       <c r="X137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:24">
+      <c r="Y137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I138">
         <v>137</v>
       </c>
       <c r="J138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K138">
         <v>46</v>
@@ -7410,13 +7824,13 @@
         <v>90</v>
       </c>
       <c r="M138" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N138" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q138" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T138">
         <v>0</v>
@@ -7433,19 +7847,22 @@
       <c r="X138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:24">
+      <c r="Y138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I139">
         <v>138</v>
       </c>
       <c r="J139" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K139">
         <v>46</v>
@@ -7454,13 +7871,13 @@
         <v>90</v>
       </c>
       <c r="M139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N139" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q139" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T139">
         <v>0</v>
@@ -7477,19 +7894,22 @@
       <c r="X139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:24">
+      <c r="Y139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I140">
         <v>139</v>
       </c>
       <c r="J140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K140">
         <v>46</v>
@@ -7498,13 +7918,13 @@
         <v>90</v>
       </c>
       <c r="M140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N140" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q140" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T140">
         <v>0</v>
@@ -7521,19 +7941,22 @@
       <c r="X140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:24">
+      <c r="Y140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B141" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I141">
         <v>140</v>
       </c>
       <c r="J141" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K141">
         <v>46</v>
@@ -7542,13 +7965,13 @@
         <v>90</v>
       </c>
       <c r="M141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N141" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T141">
         <v>0</v>
@@ -7565,19 +7988,22 @@
       <c r="X141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:24">
+      <c r="Y141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I142">
         <v>141</v>
       </c>
       <c r="J142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K142">
         <v>46</v>
@@ -7586,13 +8012,13 @@
         <v>90</v>
       </c>
       <c r="M142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N142" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T142">
         <v>0</v>
@@ -7609,19 +8035,22 @@
       <c r="X142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:24">
+      <c r="Y142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I143">
         <v>142</v>
       </c>
       <c r="J143" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K143">
         <v>46</v>
@@ -7630,13 +8059,13 @@
         <v>90</v>
       </c>
       <c r="M143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N143" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q143" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T143">
         <v>0</v>
@@ -7653,19 +8082,22 @@
       <c r="X143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:24">
+      <c r="Y143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I144">
         <v>143</v>
       </c>
       <c r="J144" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K144">
         <v>46</v>
@@ -7674,13 +8106,13 @@
         <v>90</v>
       </c>
       <c r="M144" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N144" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q144" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T144">
         <v>0</v>
@@ -7697,19 +8129,22 @@
       <c r="X144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:24">
+      <c r="Y144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I145">
         <v>144</v>
       </c>
       <c r="J145" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K145">
         <v>46</v>
@@ -7718,13 +8153,13 @@
         <v>90</v>
       </c>
       <c r="M145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N145" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q145" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T145">
         <v>0</v>
@@ -7741,19 +8176,22 @@
       <c r="X145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:24">
+      <c r="Y145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B146" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I146">
         <v>145</v>
       </c>
       <c r="J146" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K146">
         <v>46</v>
@@ -7762,13 +8200,13 @@
         <v>90</v>
       </c>
       <c r="M146" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N146" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q146" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T146">
         <v>0</v>
@@ -7785,19 +8223,22 @@
       <c r="X146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:24">
+      <c r="Y146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
       <c r="A147" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B147" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I147">
         <v>146</v>
       </c>
       <c r="J147" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K147">
         <v>46</v>
@@ -7806,13 +8247,13 @@
         <v>90</v>
       </c>
       <c r="M147" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N147" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q147" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T147">
         <v>0</v>
@@ -7829,19 +8270,22 @@
       <c r="X147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:24">
+      <c r="Y147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
       <c r="A148" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I148">
         <v>147</v>
       </c>
       <c r="J148" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K148">
         <v>47</v>
@@ -7850,13 +8294,13 @@
         <v>91</v>
       </c>
       <c r="M148" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N148" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q148" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T148">
         <v>0</v>
@@ -7873,19 +8317,22 @@
       <c r="X148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:24">
+      <c r="Y148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
       <c r="A149" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B149" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I149">
         <v>148</v>
       </c>
       <c r="J149" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K149">
         <v>48</v>
@@ -7894,13 +8341,13 @@
         <v>92</v>
       </c>
       <c r="M149" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N149" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Q149" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T149">
         <v>0</v>
@@ -7917,19 +8364,22 @@
       <c r="X149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:24">
+      <c r="Y149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
       <c r="A150" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I150">
         <v>149</v>
       </c>
       <c r="J150" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K150">
         <v>49</v>
@@ -7938,13 +8388,13 @@
         <v>93</v>
       </c>
       <c r="M150" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N150" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q150" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T150">
         <v>0</v>
@@ -7961,19 +8411,22 @@
       <c r="X150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:24">
+      <c r="Y150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I151">
         <v>150</v>
       </c>
       <c r="J151" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K151">
         <v>49</v>
@@ -7982,13 +8435,13 @@
         <v>93</v>
       </c>
       <c r="M151" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N151" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q151" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T151">
         <v>0</v>
@@ -8005,19 +8458,22 @@
       <c r="X151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:24">
+      <c r="Y151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
       <c r="A152" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I152">
         <v>151</v>
       </c>
       <c r="J152" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K152">
         <v>49</v>
@@ -8026,13 +8482,13 @@
         <v>93</v>
       </c>
       <c r="M152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N152" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q152" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T152">
         <v>0</v>
@@ -8049,19 +8505,22 @@
       <c r="X152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:24">
+      <c r="Y152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I153">
         <v>152</v>
       </c>
       <c r="J153" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K153">
         <v>49</v>
@@ -8070,13 +8529,13 @@
         <v>93</v>
       </c>
       <c r="M153" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N153" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q153" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T153">
         <v>0</v>
@@ -8093,19 +8552,22 @@
       <c r="X153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:24">
+      <c r="Y153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
       <c r="A154" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I154">
         <v>153</v>
       </c>
       <c r="J154" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K154">
         <v>49</v>
@@ -8114,13 +8576,13 @@
         <v>93</v>
       </c>
       <c r="M154" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N154" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q154" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T154">
         <v>0</v>
@@ -8137,19 +8599,22 @@
       <c r="X154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:24">
+      <c r="Y154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
       <c r="A155" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I155">
         <v>154</v>
       </c>
       <c r="J155" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K155">
         <v>49</v>
@@ -8158,13 +8623,13 @@
         <v>93</v>
       </c>
       <c r="M155" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N155" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q155" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T155">
         <v>0</v>
@@ -8181,19 +8646,22 @@
       <c r="X155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:24">
+      <c r="Y155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
       <c r="A156" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B156" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I156">
         <v>155</v>
       </c>
       <c r="J156" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K156">
         <v>49</v>
@@ -8202,13 +8670,13 @@
         <v>93</v>
       </c>
       <c r="M156" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N156" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q156" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T156">
         <v>0</v>
@@ -8225,19 +8693,22 @@
       <c r="X156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:24">
+      <c r="Y156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
       <c r="A157" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B157" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I157">
         <v>156</v>
       </c>
       <c r="J157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K157">
         <v>50</v>
@@ -8246,13 +8717,13 @@
         <v>94</v>
       </c>
       <c r="M157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N157" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Q157" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T157">
         <v>0</v>
@@ -8269,19 +8740,22 @@
       <c r="X157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:24">
+      <c r="Y157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
       <c r="A158" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I158">
         <v>157</v>
       </c>
       <c r="J158" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K158">
         <v>50</v>
@@ -8290,13 +8764,13 @@
         <v>94</v>
       </c>
       <c r="M158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N158" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Q158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T158">
         <v>0</v>
@@ -8313,19 +8787,22 @@
       <c r="X158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:24">
+      <c r="Y158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B159" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I159">
         <v>158</v>
       </c>
       <c r="J159" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K159">
         <v>51</v>
@@ -8334,13 +8811,13 @@
         <v>95</v>
       </c>
       <c r="M159" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N159" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q159" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T159">
         <v>0</v>
@@ -8357,19 +8834,22 @@
       <c r="X159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:24">
+      <c r="Y159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
       <c r="A160" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I160">
         <v>159</v>
       </c>
       <c r="J160" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K160">
         <v>52</v>
@@ -8378,13 +8858,13 @@
         <v>96</v>
       </c>
       <c r="M160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N160" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Q160" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T160">
         <v>0</v>
@@ -8401,19 +8881,22 @@
       <c r="X160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:24">
+      <c r="Y160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25">
       <c r="A161" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I161">
         <v>160</v>
       </c>
       <c r="J161" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K161">
         <v>53</v>
@@ -8422,13 +8905,13 @@
         <v>98</v>
       </c>
       <c r="M161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N161" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q161" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T161">
         <v>0</v>
@@ -8445,19 +8928,22 @@
       <c r="X161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:24">
+      <c r="Y161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25">
       <c r="A162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B162" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I162">
         <v>161</v>
       </c>
       <c r="J162" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K162">
         <v>53</v>
@@ -8466,13 +8952,13 @@
         <v>98</v>
       </c>
       <c r="M162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N162" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T162">
         <v>0</v>
@@ -8489,19 +8975,22 @@
       <c r="X162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:24">
+      <c r="Y162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25">
       <c r="A163" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I163">
         <v>162</v>
       </c>
       <c r="J163" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K163">
         <v>53</v>
@@ -8510,13 +8999,13 @@
         <v>98</v>
       </c>
       <c r="M163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N163" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q163" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T163">
         <v>0</v>
@@ -8533,19 +9022,22 @@
       <c r="X163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:24">
+      <c r="Y163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25">
       <c r="A164" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I164">
         <v>163</v>
       </c>
       <c r="J164" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K164">
         <v>54</v>
@@ -8554,13 +9046,13 @@
         <v>99</v>
       </c>
       <c r="M164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N164" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q164" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T164">
         <v>0</v>
@@ -8577,19 +9069,22 @@
       <c r="X164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:24">
+      <c r="Y164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25">
       <c r="A165" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I165">
         <v>164</v>
       </c>
       <c r="J165" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K165">
         <v>54</v>
@@ -8598,13 +9093,13 @@
         <v>99</v>
       </c>
       <c r="M165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N165" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T165">
         <v>0</v>
@@ -8621,19 +9116,22 @@
       <c r="X165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:24">
+      <c r="Y165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I166">
         <v>165</v>
       </c>
       <c r="J166" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K166">
         <v>54</v>
@@ -8642,13 +9140,13 @@
         <v>99</v>
       </c>
       <c r="M166" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N166" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q166" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T166">
         <v>0</v>
@@ -8665,19 +9163,22 @@
       <c r="X166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:24">
+      <c r="Y166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25">
       <c r="A167" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I167">
         <v>166</v>
       </c>
       <c r="J167" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K167">
         <v>54</v>
@@ -8686,13 +9187,13 @@
         <v>99</v>
       </c>
       <c r="M167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N167" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q167" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T167">
         <v>0</v>
@@ -8709,19 +9210,22 @@
       <c r="X167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:24">
+      <c r="Y167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25">
       <c r="A168" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B168" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I168">
         <v>167</v>
       </c>
       <c r="J168" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K168">
         <v>54</v>
@@ -8730,13 +9234,13 @@
         <v>99</v>
       </c>
       <c r="M168" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N168" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -8753,19 +9257,22 @@
       <c r="X168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:24">
+      <c r="Y168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25">
       <c r="A169" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I169">
         <v>168</v>
       </c>
       <c r="J169" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K169">
         <v>54</v>
@@ -8774,13 +9281,13 @@
         <v>99</v>
       </c>
       <c r="M169" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N169" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q169" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T169">
         <v>0</v>
@@ -8797,19 +9304,22 @@
       <c r="X169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:24">
+      <c r="Y169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25">
       <c r="A170" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I170">
         <v>169</v>
       </c>
       <c r="J170" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K170">
         <v>54</v>
@@ -8818,13 +9328,13 @@
         <v>99</v>
       </c>
       <c r="M170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N170" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q170" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T170">
         <v>0</v>
@@ -8841,19 +9351,22 @@
       <c r="X170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:24">
+      <c r="Y170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I171">
         <v>170</v>
       </c>
       <c r="J171" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K171">
         <v>54</v>
@@ -8862,13 +9375,13 @@
         <v>99</v>
       </c>
       <c r="M171" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N171" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q171" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T171">
         <v>0</v>
@@ -8885,19 +9398,22 @@
       <c r="X171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:24">
+      <c r="Y171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B172" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I172">
         <v>171</v>
       </c>
       <c r="J172" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K172">
         <v>55</v>
@@ -8906,13 +9422,13 @@
         <v>100</v>
       </c>
       <c r="M172" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N172" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q172" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T172">
         <v>0</v>
@@ -8929,19 +9445,22 @@
       <c r="X172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:24">
+      <c r="Y172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B173" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I173">
         <v>172</v>
       </c>
       <c r="J173" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K173">
         <v>55</v>
@@ -8950,13 +9469,13 @@
         <v>100</v>
       </c>
       <c r="M173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N173" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q173" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T173">
         <v>0</v>
@@ -8973,19 +9492,22 @@
       <c r="X173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:24">
+      <c r="Y173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B174" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I174">
         <v>173</v>
       </c>
       <c r="J174" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K174">
         <v>56</v>
@@ -8994,13 +9516,13 @@
         <v>101</v>
       </c>
       <c r="M174" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N174" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q174" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T174">
         <v>0</v>
@@ -9017,19 +9539,22 @@
       <c r="X174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:24">
+      <c r="Y174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B175" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I175">
         <v>174</v>
       </c>
       <c r="J175" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K175">
         <v>56</v>
@@ -9038,13 +9563,13 @@
         <v>101</v>
       </c>
       <c r="M175" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N175" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q175" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T175">
         <v>0</v>
@@ -9061,19 +9586,22 @@
       <c r="X175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:24">
+      <c r="Y175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
       <c r="A176" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I176">
         <v>175</v>
       </c>
       <c r="J176" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K176">
         <v>56</v>
@@ -9082,13 +9610,13 @@
         <v>101</v>
       </c>
       <c r="M176" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N176" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q176" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T176">
         <v>0</v>
@@ -9105,19 +9633,22 @@
       <c r="X176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:24">
+      <c r="Y176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
       <c r="A177" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I177">
         <v>176</v>
       </c>
       <c r="J177" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K177">
         <v>56</v>
@@ -9126,13 +9657,13 @@
         <v>101</v>
       </c>
       <c r="M177" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N177" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q177" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T177">
         <v>0</v>
@@ -9149,19 +9680,22 @@
       <c r="X177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:24">
+      <c r="Y177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B178" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I178">
         <v>177</v>
       </c>
       <c r="J178" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K178">
         <v>57</v>
@@ -9170,13 +9704,13 @@
         <v>102</v>
       </c>
       <c r="M178" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N178" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Q178" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T178">
         <v>0</v>
@@ -9193,19 +9727,22 @@
       <c r="X178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:24">
+      <c r="Y178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B179" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I179">
         <v>178</v>
       </c>
       <c r="J179" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K179">
         <v>58</v>
@@ -9214,13 +9751,13 @@
         <v>103</v>
       </c>
       <c r="M179" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N179" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Q179" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T179">
         <v>0</v>
@@ -9237,19 +9774,22 @@
       <c r="X179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:24">
+      <c r="Y179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25">
       <c r="A180" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B180" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I180">
         <v>179</v>
       </c>
       <c r="J180" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K180">
         <v>59</v>
@@ -9258,13 +9798,13 @@
         <v>104</v>
       </c>
       <c r="M180" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N180" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T180">
         <v>0</v>
@@ -9281,19 +9821,22 @@
       <c r="X180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:24">
+      <c r="Y180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25">
       <c r="A181" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I181">
         <v>180</v>
       </c>
       <c r="J181" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K181">
         <v>59</v>
@@ -9302,13 +9845,13 @@
         <v>104</v>
       </c>
       <c r="M181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N181" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q181" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T181">
         <v>0</v>
@@ -9325,19 +9868,22 @@
       <c r="X181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:24">
+      <c r="Y181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25">
       <c r="A182" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B182" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I182">
         <v>181</v>
       </c>
       <c r="J182" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K182">
         <v>59</v>
@@ -9346,13 +9892,13 @@
         <v>104</v>
       </c>
       <c r="M182" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N182" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q182" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T182">
         <v>0</v>
@@ -9369,19 +9915,22 @@
       <c r="X182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:24">
+      <c r="Y182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25">
       <c r="A183" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B183" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I183">
         <v>182</v>
       </c>
       <c r="J183" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K183">
         <v>60</v>
@@ -9390,13 +9939,13 @@
         <v>105</v>
       </c>
       <c r="M183" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N183" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Q183" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T183">
         <v>0</v>
@@ -9413,19 +9962,22 @@
       <c r="X183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:24">
+      <c r="Y183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25">
       <c r="A184" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B184" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I184">
         <v>183</v>
       </c>
       <c r="J184" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K184">
         <v>61</v>
@@ -9434,13 +9986,13 @@
         <v>106</v>
       </c>
       <c r="M184" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N184" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T184">
         <v>0</v>
@@ -9457,19 +10009,22 @@
       <c r="X184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:24">
+      <c r="Y184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25">
       <c r="A185" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B185" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I185">
         <v>184</v>
       </c>
       <c r="J185" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K185">
         <v>62</v>
@@ -9478,13 +10033,13 @@
         <v>107</v>
       </c>
       <c r="M185" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N185" s="2">
         <v>45045.17372685186</v>
       </c>
       <c r="Q185" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T185">
         <v>0</v>
@@ -9501,19 +10056,22 @@
       <c r="X185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:24">
+      <c r="Y185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I186">
         <v>185</v>
       </c>
       <c r="J186" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K186">
         <v>63</v>
@@ -9522,13 +10080,13 @@
         <v>109</v>
       </c>
       <c r="M186" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N186" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="Q186" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T186">
         <v>0</v>
@@ -9545,19 +10103,22 @@
       <c r="X186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:24">
+      <c r="Y186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I187">
         <v>186</v>
       </c>
       <c r="J187" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K187">
         <v>64</v>
@@ -9566,13 +10127,13 @@
         <v>110</v>
       </c>
       <c r="M187" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N187" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Q187" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T187">
         <v>0</v>
@@ -9589,19 +10150,22 @@
       <c r="X187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:24">
+      <c r="Y187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I188">
         <v>187</v>
       </c>
       <c r="J188" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K188">
         <v>64</v>
@@ -9610,13 +10174,13 @@
         <v>110</v>
       </c>
       <c r="M188" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N188" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Q188" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T188">
         <v>0</v>
@@ -9633,19 +10197,22 @@
       <c r="X188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:24">
+      <c r="Y188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I189">
         <v>188</v>
       </c>
       <c r="J189" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K189">
         <v>65</v>
@@ -9654,13 +10221,13 @@
         <v>111</v>
       </c>
       <c r="M189" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N189" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Q189" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T189">
         <v>0</v>
@@ -9677,19 +10244,22 @@
       <c r="X189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:24">
+      <c r="Y189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I190">
         <v>189</v>
       </c>
       <c r="J190" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K190">
         <v>66</v>
@@ -9698,13 +10268,13 @@
         <v>113</v>
       </c>
       <c r="M190" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N190" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Q190" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T190">
         <v>0</v>
@@ -9721,19 +10291,22 @@
       <c r="X190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:24">
+      <c r="Y190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I191">
         <v>190</v>
       </c>
       <c r="J191" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K191">
         <v>67</v>
@@ -9742,13 +10315,13 @@
         <v>114</v>
       </c>
       <c r="M191" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N191" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="Q191" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T191">
         <v>0</v>
@@ -9765,19 +10338,22 @@
       <c r="X191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:24">
+      <c r="Y191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I192">
         <v>191</v>
       </c>
       <c r="J192" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K192">
         <v>68</v>
@@ -9786,13 +10362,13 @@
         <v>115</v>
       </c>
       <c r="M192" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N192" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Q192" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T192">
         <v>0</v>
@@ -9809,19 +10385,22 @@
       <c r="X192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:24">
+      <c r="Y192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I193">
         <v>192</v>
       </c>
       <c r="J193" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K193">
         <v>69</v>
@@ -9830,13 +10409,13 @@
         <v>117</v>
       </c>
       <c r="M193" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N193" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="Q193" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T193">
         <v>0</v>
@@ -9853,19 +10432,22 @@
       <c r="X193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:24">
+      <c r="Y193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I194">
         <v>193</v>
       </c>
       <c r="J194" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K194">
         <v>70</v>
@@ -9874,13 +10456,13 @@
         <v>118</v>
       </c>
       <c r="M194" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N194" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="Q194" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T194">
         <v>0</v>
@@ -9897,19 +10479,22 @@
       <c r="X194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:24">
+      <c r="Y194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I195">
         <v>194</v>
       </c>
       <c r="J195" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K195">
         <v>71</v>
@@ -9918,13 +10503,13 @@
         <v>119</v>
       </c>
       <c r="M195" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N195" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q195" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T195">
         <v>0</v>
@@ -9941,19 +10526,22 @@
       <c r="X195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:24">
+      <c r="Y195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I196">
         <v>195</v>
       </c>
       <c r="J196" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K196">
         <v>71</v>
@@ -9962,13 +10550,13 @@
         <v>119</v>
       </c>
       <c r="M196" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N196" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q196" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T196">
         <v>0</v>
@@ -9985,19 +10573,22 @@
       <c r="X196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:24">
+      <c r="Y196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I197">
         <v>196</v>
       </c>
       <c r="J197" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K197">
         <v>71</v>
@@ -10006,13 +10597,13 @@
         <v>119</v>
       </c>
       <c r="M197" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N197" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q197" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T197">
         <v>0</v>
@@ -10029,19 +10620,22 @@
       <c r="X197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:24">
+      <c r="Y197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I198">
         <v>197</v>
       </c>
       <c r="J198" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K198">
         <v>71</v>
@@ -10050,13 +10644,13 @@
         <v>119</v>
       </c>
       <c r="M198" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N198" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q198" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T198">
         <v>0</v>
@@ -10073,19 +10667,22 @@
       <c r="X198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:24">
+      <c r="Y198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I199">
         <v>198</v>
       </c>
       <c r="J199" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K199">
         <v>71</v>
@@ -10094,13 +10691,13 @@
         <v>119</v>
       </c>
       <c r="M199" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N199" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q199" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T199">
         <v>0</v>
@@ -10117,19 +10714,22 @@
       <c r="X199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:24">
+      <c r="Y199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I200">
         <v>199</v>
       </c>
       <c r="J200" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K200">
         <v>71</v>
@@ -10138,13 +10738,13 @@
         <v>119</v>
       </c>
       <c r="M200" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N200" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q200" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T200">
         <v>0</v>
@@ -10161,19 +10761,22 @@
       <c r="X200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:24">
+      <c r="Y200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I201">
         <v>200</v>
       </c>
       <c r="J201" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K201">
         <v>71</v>
@@ -10182,13 +10785,13 @@
         <v>119</v>
       </c>
       <c r="M201" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N201" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q201" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T201">
         <v>0</v>
@@ -10205,19 +10808,22 @@
       <c r="X201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:24">
+      <c r="Y201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I202">
         <v>201</v>
       </c>
       <c r="J202" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K202">
         <v>71</v>
@@ -10226,13 +10832,13 @@
         <v>119</v>
       </c>
       <c r="M202" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N202" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q202" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T202">
         <v>0</v>
@@ -10249,19 +10855,22 @@
       <c r="X202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:24">
+      <c r="Y202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I203">
         <v>202</v>
       </c>
       <c r="J203" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K203">
         <v>71</v>
@@ -10270,13 +10879,13 @@
         <v>119</v>
       </c>
       <c r="M203" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N203" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q203" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T203">
         <v>0</v>
@@ -10293,19 +10902,22 @@
       <c r="X203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:24">
+      <c r="Y203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I204">
         <v>203</v>
       </c>
       <c r="J204" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K204">
         <v>71</v>
@@ -10314,13 +10926,13 @@
         <v>119</v>
       </c>
       <c r="M204" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N204" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q204" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T204">
         <v>0</v>
@@ -10337,19 +10949,22 @@
       <c r="X204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:24">
+      <c r="Y204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I205">
         <v>204</v>
       </c>
       <c r="J205" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K205">
         <v>71</v>
@@ -10358,13 +10973,13 @@
         <v>119</v>
       </c>
       <c r="M205" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N205" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q205" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T205">
         <v>0</v>
@@ -10381,19 +10996,22 @@
       <c r="X205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:24">
+      <c r="Y205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I206">
         <v>205</v>
       </c>
       <c r="J206" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K206">
         <v>71</v>
@@ -10402,13 +11020,13 @@
         <v>119</v>
       </c>
       <c r="M206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N206" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q206" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T206">
         <v>0</v>
@@ -10425,19 +11043,22 @@
       <c r="X206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:24">
+      <c r="Y206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I207">
         <v>206</v>
       </c>
       <c r="J207" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K207">
         <v>71</v>
@@ -10446,13 +11067,13 @@
         <v>119</v>
       </c>
       <c r="M207" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N207" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q207" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T207">
         <v>0</v>
@@ -10469,19 +11090,22 @@
       <c r="X207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:24">
+      <c r="Y207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I208">
         <v>207</v>
       </c>
       <c r="J208" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K208">
         <v>71</v>
@@ -10490,13 +11114,13 @@
         <v>119</v>
       </c>
       <c r="M208" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N208" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q208" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T208">
         <v>0</v>
@@ -10513,19 +11137,22 @@
       <c r="X208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:24">
+      <c r="Y208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I209">
         <v>208</v>
       </c>
       <c r="J209" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K209">
         <v>71</v>
@@ -10534,13 +11161,13 @@
         <v>119</v>
       </c>
       <c r="M209" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N209" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q209" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T209">
         <v>0</v>
@@ -10557,19 +11184,22 @@
       <c r="X209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:24">
+      <c r="Y209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I210">
         <v>209</v>
       </c>
       <c r="J210" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K210">
         <v>71</v>
@@ -10578,13 +11208,13 @@
         <v>119</v>
       </c>
       <c r="M210" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N210" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q210" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T210">
         <v>0</v>
@@ -10601,19 +11231,22 @@
       <c r="X210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:24">
+      <c r="Y210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I211">
         <v>210</v>
       </c>
       <c r="J211" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K211">
         <v>71</v>
@@ -10622,13 +11255,13 @@
         <v>119</v>
       </c>
       <c r="M211" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N211" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q211" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T211">
         <v>0</v>
@@ -10645,19 +11278,22 @@
       <c r="X211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:24">
+      <c r="Y211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I212">
         <v>211</v>
       </c>
       <c r="J212" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K212">
         <v>71</v>
@@ -10666,13 +11302,13 @@
         <v>119</v>
       </c>
       <c r="M212" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N212" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q212" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T212">
         <v>0</v>
@@ -10689,19 +11325,22 @@
       <c r="X212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:24">
+      <c r="Y212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I213">
         <v>212</v>
       </c>
       <c r="J213" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K213">
         <v>71</v>
@@ -10710,13 +11349,13 @@
         <v>119</v>
       </c>
       <c r="M213" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N213" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q213" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T213">
         <v>0</v>
@@ -10733,19 +11372,22 @@
       <c r="X213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:24">
+      <c r="Y213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I214">
         <v>213</v>
       </c>
       <c r="J214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K214">
         <v>71</v>
@@ -10754,13 +11396,13 @@
         <v>119</v>
       </c>
       <c r="M214" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N214" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q214" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T214">
         <v>0</v>
@@ -10775,6 +11417,9 @@
         <v>0</v>
       </c>
       <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="311">
   <si>
     <t>p18_act</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1320,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W213"/>
+  <dimension ref="A1:X213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,19 +1399,22 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1417,13 +1423,13 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="Q2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1437,19 +1443,22 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1458,13 +1467,13 @@
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Q3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1478,19 +1487,22 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1499,13 +1511,13 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Q4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1519,19 +1531,22 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1540,13 +1555,13 @@
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Q5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1560,19 +1575,22 @@
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1581,13 +1599,13 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1601,19 +1619,22 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1622,13 +1643,13 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1642,19 +1663,22 @@
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1663,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1683,19 +1707,22 @@
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1704,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1724,19 +1751,22 @@
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1745,13 +1775,13 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1765,19 +1795,22 @@
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1786,13 +1819,13 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N11" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1806,19 +1839,22 @@
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -1827,13 +1863,13 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1847,19 +1883,22 @@
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1868,13 +1907,13 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1888,19 +1927,22 @@
       <c r="W13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1909,13 +1951,13 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1929,19 +1971,22 @@
       <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -1950,13 +1995,13 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1970,19 +2015,22 @@
       <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -1991,13 +2039,13 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N16" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2011,19 +2059,22 @@
       <c r="W16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2032,13 +2083,13 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N17" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2052,19 +2103,22 @@
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2073,13 +2127,13 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N18" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2093,19 +2147,22 @@
       <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2114,13 +2171,13 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N19" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2134,19 +2191,22 @@
       <c r="W19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K20">
         <v>11</v>
@@ -2155,13 +2215,13 @@
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2175,19 +2235,22 @@
       <c r="W20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K21">
         <v>11</v>
@@ -2196,13 +2259,13 @@
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2216,19 +2279,22 @@
       <c r="W21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2237,13 +2303,13 @@
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2257,19 +2323,22 @@
       <c r="W22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K23">
         <v>11</v>
@@ -2278,13 +2347,13 @@
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2298,19 +2367,22 @@
       <c r="W23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2319,13 +2391,13 @@
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2339,19 +2411,22 @@
       <c r="W24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -2360,13 +2435,13 @@
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2380,19 +2455,22 @@
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -2401,13 +2479,13 @@
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2421,19 +2499,22 @@
       <c r="W26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -2442,13 +2523,13 @@
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2462,19 +2543,22 @@
       <c r="W27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K28">
         <v>12</v>
@@ -2483,13 +2567,13 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2503,19 +2587,22 @@
       <c r="W28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -2524,13 +2611,13 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2544,19 +2631,22 @@
       <c r="W29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K30">
         <v>12</v>
@@ -2565,13 +2655,13 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N30" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Q30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2585,19 +2675,22 @@
       <c r="W30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K31">
         <v>13</v>
@@ -2606,13 +2699,13 @@
         <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Q31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2626,19 +2719,22 @@
       <c r="W31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -2647,13 +2743,13 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N32" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Q32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2667,19 +2763,22 @@
       <c r="W32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K33">
         <v>14</v>
@@ -2688,13 +2787,13 @@
         <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Q33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -2708,19 +2807,22 @@
       <c r="W33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K34">
         <v>14</v>
@@ -2729,13 +2831,13 @@
         <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Q34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -2749,19 +2851,22 @@
       <c r="W34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35">
         <v>15</v>
@@ -2770,13 +2875,13 @@
         <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -2790,19 +2895,22 @@
       <c r="W35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -2811,13 +2919,13 @@
         <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N36" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -2831,19 +2939,22 @@
       <c r="W36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K37">
         <v>16</v>
@@ -2852,13 +2963,13 @@
         <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Q37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -2872,19 +2983,22 @@
       <c r="W37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K38">
         <v>17</v>
@@ -2893,13 +3007,13 @@
         <v>26</v>
       </c>
       <c r="M38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N38" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Q38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -2913,19 +3027,22 @@
       <c r="W38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K39">
         <v>18</v>
@@ -2934,13 +3051,13 @@
         <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N39" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -2954,19 +3071,22 @@
       <c r="W39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -2975,13 +3095,13 @@
         <v>30</v>
       </c>
       <c r="M40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N40" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -2995,19 +3115,22 @@
       <c r="W40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K41">
         <v>19</v>
@@ -3016,13 +3139,13 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3036,19 +3159,22 @@
       <c r="W41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K42">
         <v>19</v>
@@ -3057,13 +3183,13 @@
         <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N42" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3077,19 +3203,22 @@
       <c r="W42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K43">
         <v>19</v>
@@ -3098,13 +3227,13 @@
         <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N43" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -3118,19 +3247,22 @@
       <c r="W43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K44">
         <v>19</v>
@@ -3139,13 +3271,13 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N44" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Q44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -3159,19 +3291,22 @@
       <c r="W44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K45">
         <v>20</v>
@@ -3180,13 +3315,13 @@
         <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N45" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Q45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -3200,19 +3335,22 @@
       <c r="W45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K46">
         <v>21</v>
@@ -3221,13 +3359,13 @@
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N46" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -3241,19 +3379,22 @@
       <c r="W46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K47">
         <v>22</v>
@@ -3262,13 +3403,13 @@
         <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N47" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q47" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -3282,19 +3423,22 @@
       <c r="W47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K48">
         <v>22</v>
@@ -3303,13 +3447,13 @@
         <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N48" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -3323,19 +3467,22 @@
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K49">
         <v>22</v>
@@ -3344,13 +3491,13 @@
         <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N49" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Q49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -3364,19 +3511,22 @@
       <c r="W49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K50">
         <v>23</v>
@@ -3385,13 +3535,13 @@
         <v>38</v>
       </c>
       <c r="M50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q50" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -3405,19 +3555,22 @@
       <c r="W50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K51">
         <v>23</v>
@@ -3426,13 +3579,13 @@
         <v>38</v>
       </c>
       <c r="M51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -3446,19 +3599,22 @@
       <c r="W51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K52">
         <v>23</v>
@@ -3467,13 +3623,13 @@
         <v>38</v>
       </c>
       <c r="M52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q52" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -3487,19 +3643,22 @@
       <c r="W52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K53">
         <v>23</v>
@@ -3508,13 +3667,13 @@
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -3528,19 +3687,22 @@
       <c r="W53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K54">
         <v>23</v>
@@ -3549,13 +3711,13 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -3569,19 +3731,22 @@
       <c r="W54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K55">
         <v>23</v>
@@ -3590,13 +3755,13 @@
         <v>38</v>
       </c>
       <c r="M55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -3610,19 +3775,22 @@
       <c r="W55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K56">
         <v>23</v>
@@ -3631,13 +3799,13 @@
         <v>38</v>
       </c>
       <c r="M56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Q56" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -3651,19 +3819,22 @@
       <c r="W56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K57">
         <v>24</v>
@@ -3672,13 +3843,13 @@
         <v>51</v>
       </c>
       <c r="M57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -3692,19 +3863,22 @@
       <c r="W57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K58">
         <v>24</v>
@@ -3713,13 +3887,13 @@
         <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -3733,19 +3907,22 @@
       <c r="W58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K59">
         <v>24</v>
@@ -3754,13 +3931,13 @@
         <v>51</v>
       </c>
       <c r="M59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -3774,19 +3951,22 @@
       <c r="W59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K60">
         <v>24</v>
@@ -3795,13 +3975,13 @@
         <v>51</v>
       </c>
       <c r="M60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q60" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -3815,19 +3995,22 @@
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K61">
         <v>24</v>
@@ -3836,13 +4019,13 @@
         <v>51</v>
       </c>
       <c r="M61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -3856,19 +4039,22 @@
       <c r="W61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K62">
         <v>24</v>
@@ -3877,13 +4063,13 @@
         <v>51</v>
       </c>
       <c r="M62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -3897,19 +4083,22 @@
       <c r="W62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K63">
         <v>24</v>
@@ -3918,13 +4107,13 @@
         <v>51</v>
       </c>
       <c r="M63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -3938,19 +4127,22 @@
       <c r="W63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K64">
         <v>25</v>
@@ -3959,13 +4151,13 @@
         <v>52</v>
       </c>
       <c r="M64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N64" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Q64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -3979,19 +4171,22 @@
       <c r="W64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K65">
         <v>26</v>
@@ -4000,13 +4195,13 @@
         <v>55</v>
       </c>
       <c r="M65" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N65" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Q65" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -4020,19 +4215,22 @@
       <c r="W65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K66">
         <v>27</v>
@@ -4041,13 +4239,13 @@
         <v>56</v>
       </c>
       <c r="M66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N66" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q66" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -4061,19 +4259,22 @@
       <c r="W66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K67">
         <v>28</v>
@@ -4082,13 +4283,13 @@
         <v>57</v>
       </c>
       <c r="M67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N67" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q67" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -4102,19 +4303,22 @@
       <c r="W67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K68">
         <v>28</v>
@@ -4123,13 +4327,13 @@
         <v>57</v>
       </c>
       <c r="M68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -4143,19 +4347,22 @@
       <c r="W68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K69">
         <v>28</v>
@@ -4164,13 +4371,13 @@
         <v>57</v>
       </c>
       <c r="M69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -4184,19 +4391,22 @@
       <c r="W69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K70">
         <v>28</v>
@@ -4205,13 +4415,13 @@
         <v>57</v>
       </c>
       <c r="M70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q70" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -4225,19 +4435,22 @@
       <c r="W70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K71">
         <v>28</v>
@@ -4246,13 +4459,13 @@
         <v>57</v>
       </c>
       <c r="M71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -4266,19 +4479,22 @@
       <c r="W71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K72">
         <v>28</v>
@@ -4287,13 +4503,13 @@
         <v>57</v>
       </c>
       <c r="M72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N72" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -4307,19 +4523,22 @@
       <c r="W72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K73">
         <v>29</v>
@@ -4328,13 +4547,13 @@
         <v>58</v>
       </c>
       <c r="M73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N73" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q73" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -4348,19 +4567,22 @@
       <c r="W73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K74">
         <v>29</v>
@@ -4369,13 +4591,13 @@
         <v>58</v>
       </c>
       <c r="M74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N74" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q74" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -4389,19 +4611,22 @@
       <c r="W74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K75">
         <v>29</v>
@@ -4410,13 +4635,13 @@
         <v>58</v>
       </c>
       <c r="M75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N75" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Q75" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -4430,19 +4655,22 @@
       <c r="W75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K76">
         <v>30</v>
@@ -4451,13 +4679,13 @@
         <v>59</v>
       </c>
       <c r="M76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -4471,19 +4699,22 @@
       <c r="W76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K77">
         <v>30</v>
@@ -4492,13 +4723,13 @@
         <v>59</v>
       </c>
       <c r="M77" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -4512,19 +4743,22 @@
       <c r="W77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K78">
         <v>30</v>
@@ -4533,13 +4767,13 @@
         <v>59</v>
       </c>
       <c r="M78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -4553,19 +4787,22 @@
       <c r="W78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K79">
         <v>30</v>
@@ -4574,13 +4811,13 @@
         <v>59</v>
       </c>
       <c r="M79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q79" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -4594,19 +4831,22 @@
       <c r="W79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K80">
         <v>30</v>
@@ -4615,13 +4855,13 @@
         <v>59</v>
       </c>
       <c r="M80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q80" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -4635,19 +4875,22 @@
       <c r="W80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K81">
         <v>30</v>
@@ -4656,13 +4899,13 @@
         <v>59</v>
       </c>
       <c r="M81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -4676,19 +4919,22 @@
       <c r="W81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K82">
         <v>30</v>
@@ -4697,13 +4943,13 @@
         <v>59</v>
       </c>
       <c r="M82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q82" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -4717,19 +4963,22 @@
       <c r="W82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K83">
         <v>30</v>
@@ -4738,13 +4987,13 @@
         <v>59</v>
       </c>
       <c r="M83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N83" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -4758,19 +5007,22 @@
       <c r="W83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I84">
         <v>83</v>
       </c>
       <c r="J84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K84">
         <v>31</v>
@@ -4779,13 +5031,13 @@
         <v>60</v>
       </c>
       <c r="M84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N84" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q84" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -4799,19 +5051,22 @@
       <c r="W84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I85">
         <v>84</v>
       </c>
       <c r="J85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K85">
         <v>31</v>
@@ -4820,13 +5075,13 @@
         <v>60</v>
       </c>
       <c r="M85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N85" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q85" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -4840,19 +5095,22 @@
       <c r="W85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I86">
         <v>85</v>
       </c>
       <c r="J86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K86">
         <v>32</v>
@@ -4861,13 +5119,13 @@
         <v>61</v>
       </c>
       <c r="M86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N86" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q86" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -4881,19 +5139,22 @@
       <c r="W86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I87">
         <v>86</v>
       </c>
       <c r="J87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K87">
         <v>33</v>
@@ -4902,13 +5163,13 @@
         <v>63</v>
       </c>
       <c r="M87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -4922,19 +5183,22 @@
       <c r="W87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I88">
         <v>87</v>
       </c>
       <c r="J88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K88">
         <v>33</v>
@@ -4943,13 +5207,13 @@
         <v>63</v>
       </c>
       <c r="M88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q88" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -4963,19 +5227,22 @@
       <c r="W88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I89">
         <v>88</v>
       </c>
       <c r="J89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K89">
         <v>33</v>
@@ -4984,13 +5251,13 @@
         <v>63</v>
       </c>
       <c r="M89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q89" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -5004,19 +5271,22 @@
       <c r="W89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I90">
         <v>89</v>
       </c>
       <c r="J90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K90">
         <v>33</v>
@@ -5025,13 +5295,13 @@
         <v>63</v>
       </c>
       <c r="M90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q90" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -5045,19 +5315,22 @@
       <c r="W90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I91">
         <v>90</v>
       </c>
       <c r="J91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K91">
         <v>33</v>
@@ -5066,13 +5339,13 @@
         <v>63</v>
       </c>
       <c r="M91" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q91" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -5086,19 +5359,22 @@
       <c r="W91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I92">
         <v>91</v>
       </c>
       <c r="J92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K92">
         <v>33</v>
@@ -5107,13 +5383,13 @@
         <v>63</v>
       </c>
       <c r="M92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Q92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -5127,19 +5403,22 @@
       <c r="W92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I93">
         <v>92</v>
       </c>
       <c r="J93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K93">
         <v>34</v>
@@ -5148,13 +5427,13 @@
         <v>64</v>
       </c>
       <c r="M93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Q93" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -5168,19 +5447,22 @@
       <c r="W93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I94">
         <v>93</v>
       </c>
       <c r="J94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K94">
         <v>34</v>
@@ -5189,13 +5471,13 @@
         <v>64</v>
       </c>
       <c r="M94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N94" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Q94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -5209,19 +5491,22 @@
       <c r="W94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I95">
         <v>94</v>
       </c>
       <c r="J95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K95">
         <v>35</v>
@@ -5230,13 +5515,13 @@
         <v>75</v>
       </c>
       <c r="M95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N95" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q95" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -5250,19 +5535,22 @@
       <c r="W95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I96">
         <v>95</v>
       </c>
       <c r="J96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K96">
         <v>36</v>
@@ -5271,13 +5559,13 @@
         <v>77</v>
       </c>
       <c r="M96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q96" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -5291,19 +5579,22 @@
       <c r="W96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I97">
         <v>96</v>
       </c>
       <c r="J97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K97">
         <v>36</v>
@@ -5312,13 +5603,13 @@
         <v>77</v>
       </c>
       <c r="M97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -5332,19 +5623,22 @@
       <c r="W97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I98">
         <v>97</v>
       </c>
       <c r="J98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K98">
         <v>37</v>
@@ -5353,13 +5647,13 @@
         <v>78</v>
       </c>
       <c r="M98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N98" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Q98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -5373,19 +5667,22 @@
       <c r="W98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I99">
         <v>98</v>
       </c>
       <c r="J99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K99">
         <v>38</v>
@@ -5394,13 +5691,13 @@
         <v>80</v>
       </c>
       <c r="M99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N99" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q99" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -5414,19 +5711,22 @@
       <c r="W99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I100">
         <v>99</v>
       </c>
       <c r="J100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K100">
         <v>38</v>
@@ -5435,13 +5735,13 @@
         <v>80</v>
       </c>
       <c r="M100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N100" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q100" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -5455,19 +5755,22 @@
       <c r="W100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K101">
         <v>38</v>
@@ -5476,13 +5779,13 @@
         <v>80</v>
       </c>
       <c r="M101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N101" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q101" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -5496,19 +5799,22 @@
       <c r="W101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I102">
         <v>101</v>
       </c>
       <c r="J102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K102">
         <v>38</v>
@@ -5517,13 +5823,13 @@
         <v>80</v>
       </c>
       <c r="M102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N102" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q102" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -5537,19 +5843,22 @@
       <c r="W102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I103">
         <v>102</v>
       </c>
       <c r="J103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K103">
         <v>38</v>
@@ -5558,13 +5867,13 @@
         <v>80</v>
       </c>
       <c r="M103" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N103" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Q103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T103">
         <v>0</v>
@@ -5578,19 +5887,22 @@
       <c r="W103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I104">
         <v>103</v>
       </c>
       <c r="J104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K104">
         <v>39</v>
@@ -5599,13 +5911,13 @@
         <v>81</v>
       </c>
       <c r="M104" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N104" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -5619,19 +5931,22 @@
       <c r="W104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I105">
         <v>104</v>
       </c>
       <c r="J105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K105">
         <v>39</v>
@@ -5640,13 +5955,13 @@
         <v>81</v>
       </c>
       <c r="M105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N105" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q105" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -5660,19 +5975,22 @@
       <c r="W105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I106">
         <v>105</v>
       </c>
       <c r="J106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K106">
         <v>39</v>
@@ -5681,13 +5999,13 @@
         <v>81</v>
       </c>
       <c r="M106" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N106" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q106" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T106">
         <v>0</v>
@@ -5701,19 +6019,22 @@
       <c r="W106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I107">
         <v>106</v>
       </c>
       <c r="J107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K107">
         <v>39</v>
@@ -5722,13 +6043,13 @@
         <v>81</v>
       </c>
       <c r="M107" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N107" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q107" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -5742,19 +6063,22 @@
       <c r="W107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I108">
         <v>107</v>
       </c>
       <c r="J108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K108">
         <v>39</v>
@@ -5763,13 +6087,13 @@
         <v>81</v>
       </c>
       <c r="M108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q108" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -5783,19 +6107,22 @@
       <c r="W108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I109">
         <v>108</v>
       </c>
       <c r="J109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K109">
         <v>39</v>
@@ -5804,13 +6131,13 @@
         <v>81</v>
       </c>
       <c r="M109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q109" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T109">
         <v>0</v>
@@ -5824,19 +6151,22 @@
       <c r="W109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I110">
         <v>109</v>
       </c>
       <c r="J110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K110">
         <v>39</v>
@@ -5845,13 +6175,13 @@
         <v>81</v>
       </c>
       <c r="M110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q110" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T110">
         <v>0</v>
@@ -5865,19 +6195,22 @@
       <c r="W110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I111">
         <v>110</v>
       </c>
       <c r="J111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K111">
         <v>39</v>
@@ -5886,13 +6219,13 @@
         <v>81</v>
       </c>
       <c r="M111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q111" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -5906,19 +6239,22 @@
       <c r="W111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I112">
         <v>111</v>
       </c>
       <c r="J112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K112">
         <v>39</v>
@@ -5927,13 +6263,13 @@
         <v>81</v>
       </c>
       <c r="M112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N112" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -5947,19 +6283,22 @@
       <c r="W112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I113">
         <v>112</v>
       </c>
       <c r="J113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K113">
         <v>39</v>
@@ -5968,13 +6307,13 @@
         <v>81</v>
       </c>
       <c r="M113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N113" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q113" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -5988,19 +6327,22 @@
       <c r="W113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I114">
         <v>113</v>
       </c>
       <c r="J114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K114">
         <v>39</v>
@@ -6009,13 +6351,13 @@
         <v>81</v>
       </c>
       <c r="M114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N114" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q114" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T114">
         <v>0</v>
@@ -6029,19 +6371,22 @@
       <c r="W114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I115">
         <v>114</v>
       </c>
       <c r="J115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K115">
         <v>39</v>
@@ -6050,13 +6395,13 @@
         <v>81</v>
       </c>
       <c r="M115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N115" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q115" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -6070,19 +6415,22 @@
       <c r="W115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I116">
         <v>115</v>
       </c>
       <c r="J116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K116">
         <v>39</v>
@@ -6091,13 +6439,13 @@
         <v>81</v>
       </c>
       <c r="M116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N116" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q116" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -6111,19 +6459,22 @@
       <c r="W116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I117">
         <v>116</v>
       </c>
       <c r="J117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K117">
         <v>40</v>
@@ -6132,13 +6483,13 @@
         <v>82</v>
       </c>
       <c r="M117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N117" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Q117" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T117">
         <v>0</v>
@@ -6152,19 +6503,22 @@
       <c r="W117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I118">
         <v>117</v>
       </c>
       <c r="J118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K118">
         <v>40</v>
@@ -6173,13 +6527,13 @@
         <v>82</v>
       </c>
       <c r="M118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N118" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Q118" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -6193,19 +6547,22 @@
       <c r="W118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="X118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I119">
         <v>118</v>
       </c>
       <c r="J119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K119">
         <v>41</v>
@@ -6214,13 +6571,13 @@
         <v>83</v>
       </c>
       <c r="M119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N119" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="Q119" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T119">
         <v>0</v>
@@ -6234,19 +6591,22 @@
       <c r="W119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I120">
         <v>119</v>
       </c>
       <c r="J120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K120">
         <v>42</v>
@@ -6255,13 +6615,13 @@
         <v>84</v>
       </c>
       <c r="M120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N120" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q120" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T120">
         <v>0</v>
@@ -6275,19 +6635,22 @@
       <c r="W120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I121">
         <v>120</v>
       </c>
       <c r="J121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K121">
         <v>42</v>
@@ -6296,13 +6659,13 @@
         <v>84</v>
       </c>
       <c r="M121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N121" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q121" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -6316,19 +6679,22 @@
       <c r="W121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I122">
         <v>121</v>
       </c>
       <c r="J122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K122">
         <v>42</v>
@@ -6337,13 +6703,13 @@
         <v>84</v>
       </c>
       <c r="M122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N122" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q122" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -6357,19 +6723,22 @@
       <c r="W122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I123">
         <v>122</v>
       </c>
       <c r="J123" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K123">
         <v>42</v>
@@ -6378,13 +6747,13 @@
         <v>84</v>
       </c>
       <c r="M123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N123" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Q123" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -6398,19 +6767,22 @@
       <c r="W123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I124">
         <v>123</v>
       </c>
       <c r="J124" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K124">
         <v>43</v>
@@ -6419,13 +6791,13 @@
         <v>86</v>
       </c>
       <c r="M124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N124" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="Q124" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -6439,19 +6811,22 @@
       <c r="W124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I125">
         <v>124</v>
       </c>
       <c r="J125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K125">
         <v>44</v>
@@ -6460,13 +6835,13 @@
         <v>87</v>
       </c>
       <c r="M125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N125" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q125" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T125">
         <v>0</v>
@@ -6480,19 +6855,22 @@
       <c r="W125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="X125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I126">
         <v>125</v>
       </c>
       <c r="J126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K126">
         <v>44</v>
@@ -6501,13 +6879,13 @@
         <v>87</v>
       </c>
       <c r="M126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N126" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q126" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -6521,19 +6899,22 @@
       <c r="W126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I127">
         <v>126</v>
       </c>
       <c r="J127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K127">
         <v>44</v>
@@ -6542,13 +6923,13 @@
         <v>87</v>
       </c>
       <c r="M127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N127" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q127" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -6562,19 +6943,22 @@
       <c r="W127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I128">
         <v>127</v>
       </c>
       <c r="J128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K128">
         <v>44</v>
@@ -6583,13 +6967,13 @@
         <v>87</v>
       </c>
       <c r="M128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N128" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q128" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -6603,19 +6987,22 @@
       <c r="W128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="X128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I129">
         <v>128</v>
       </c>
       <c r="J129" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K129">
         <v>44</v>
@@ -6624,13 +7011,13 @@
         <v>87</v>
       </c>
       <c r="M129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N129" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q129" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T129">
         <v>0</v>
@@ -6644,19 +7031,22 @@
       <c r="W129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="X129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I130">
         <v>129</v>
       </c>
       <c r="J130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K130">
         <v>44</v>
@@ -6665,13 +7055,13 @@
         <v>87</v>
       </c>
       <c r="M130" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N130" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q130" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -6685,19 +7075,22 @@
       <c r="W130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="X130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I131">
         <v>130</v>
       </c>
       <c r="J131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K131">
         <v>44</v>
@@ -6706,13 +7099,13 @@
         <v>87</v>
       </c>
       <c r="M131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N131" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q131" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -6726,19 +7119,22 @@
       <c r="W131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I132">
         <v>131</v>
       </c>
       <c r="J132" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K132">
         <v>44</v>
@@ -6747,13 +7143,13 @@
         <v>87</v>
       </c>
       <c r="M132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N132" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q132" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -6767,19 +7163,22 @@
       <c r="W132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I133">
         <v>132</v>
       </c>
       <c r="J133" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K133">
         <v>44</v>
@@ -6788,13 +7187,13 @@
         <v>87</v>
       </c>
       <c r="M133" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N133" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -6808,19 +7207,22 @@
       <c r="W133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I134">
         <v>133</v>
       </c>
       <c r="J134" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K134">
         <v>44</v>
@@ -6829,13 +7231,13 @@
         <v>87</v>
       </c>
       <c r="M134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N134" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -6849,19 +7251,22 @@
       <c r="W134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I135">
         <v>134</v>
       </c>
       <c r="J135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K135">
         <v>45</v>
@@ -6870,13 +7275,13 @@
         <v>88</v>
       </c>
       <c r="M135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N135" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q135" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T135">
         <v>0</v>
@@ -6890,19 +7295,22 @@
       <c r="W135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="X135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I136">
         <v>135</v>
       </c>
       <c r="J136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K136">
         <v>45</v>
@@ -6911,13 +7319,13 @@
         <v>88</v>
       </c>
       <c r="M136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N136" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q136" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T136">
         <v>0</v>
@@ -6931,19 +7339,22 @@
       <c r="W136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I137">
         <v>136</v>
       </c>
       <c r="J137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K137">
         <v>45</v>
@@ -6952,13 +7363,13 @@
         <v>88</v>
       </c>
       <c r="M137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N137" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q137" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T137">
         <v>0</v>
@@ -6972,19 +7383,22 @@
       <c r="W137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I138">
         <v>137</v>
       </c>
       <c r="J138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K138">
         <v>46</v>
@@ -6993,13 +7407,13 @@
         <v>90</v>
       </c>
       <c r="M138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N138" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q138" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T138">
         <v>0</v>
@@ -7013,19 +7427,22 @@
       <c r="W138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I139">
         <v>138</v>
       </c>
       <c r="J139" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K139">
         <v>46</v>
@@ -7034,13 +7451,13 @@
         <v>90</v>
       </c>
       <c r="M139" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N139" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q139" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T139">
         <v>0</v>
@@ -7054,19 +7471,22 @@
       <c r="W139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I140">
         <v>139</v>
       </c>
       <c r="J140" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K140">
         <v>46</v>
@@ -7075,13 +7495,13 @@
         <v>90</v>
       </c>
       <c r="M140" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N140" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q140" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T140">
         <v>0</v>
@@ -7095,19 +7515,22 @@
       <c r="W140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="X140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I141">
         <v>140</v>
       </c>
       <c r="J141" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K141">
         <v>46</v>
@@ -7116,13 +7539,13 @@
         <v>90</v>
       </c>
       <c r="M141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N141" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T141">
         <v>0</v>
@@ -7136,19 +7559,22 @@
       <c r="W141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I142">
         <v>141</v>
       </c>
       <c r="J142" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K142">
         <v>46</v>
@@ -7157,13 +7583,13 @@
         <v>90</v>
       </c>
       <c r="M142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N142" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T142">
         <v>0</v>
@@ -7177,19 +7603,22 @@
       <c r="W142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I143">
         <v>142</v>
       </c>
       <c r="J143" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K143">
         <v>46</v>
@@ -7198,13 +7627,13 @@
         <v>90</v>
       </c>
       <c r="M143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N143" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q143" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T143">
         <v>0</v>
@@ -7218,19 +7647,22 @@
       <c r="W143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="X143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I144">
         <v>143</v>
       </c>
       <c r="J144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K144">
         <v>46</v>
@@ -7239,13 +7671,13 @@
         <v>90</v>
       </c>
       <c r="M144" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N144" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q144" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T144">
         <v>0</v>
@@ -7259,19 +7691,22 @@
       <c r="W144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I145">
         <v>144</v>
       </c>
       <c r="J145" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K145">
         <v>46</v>
@@ -7280,13 +7715,13 @@
         <v>90</v>
       </c>
       <c r="M145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N145" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q145" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T145">
         <v>0</v>
@@ -7300,19 +7735,22 @@
       <c r="W145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="X145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I146">
         <v>145</v>
       </c>
       <c r="J146" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K146">
         <v>46</v>
@@ -7321,13 +7759,13 @@
         <v>90</v>
       </c>
       <c r="M146" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N146" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q146" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T146">
         <v>0</v>
@@ -7341,19 +7779,22 @@
       <c r="W146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="X146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I147">
         <v>146</v>
       </c>
       <c r="J147" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K147">
         <v>46</v>
@@ -7362,13 +7803,13 @@
         <v>90</v>
       </c>
       <c r="M147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N147" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T147">
         <v>0</v>
@@ -7382,19 +7823,22 @@
       <c r="W147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I148">
         <v>147</v>
       </c>
       <c r="J148" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K148">
         <v>47</v>
@@ -7403,13 +7847,13 @@
         <v>91</v>
       </c>
       <c r="M148" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N148" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q148" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T148">
         <v>0</v>
@@ -7423,19 +7867,22 @@
       <c r="W148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I149">
         <v>148</v>
       </c>
       <c r="J149" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K149">
         <v>48</v>
@@ -7444,13 +7891,13 @@
         <v>92</v>
       </c>
       <c r="M149" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N149" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Q149" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T149">
         <v>0</v>
@@ -7464,19 +7911,22 @@
       <c r="W149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I150">
         <v>149</v>
       </c>
       <c r="J150" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K150">
         <v>49</v>
@@ -7485,13 +7935,13 @@
         <v>93</v>
       </c>
       <c r="M150" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N150" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q150" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T150">
         <v>0</v>
@@ -7505,19 +7955,22 @@
       <c r="W150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I151">
         <v>150</v>
       </c>
       <c r="J151" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K151">
         <v>49</v>
@@ -7526,13 +7979,13 @@
         <v>93</v>
       </c>
       <c r="M151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N151" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T151">
         <v>0</v>
@@ -7546,19 +7999,22 @@
       <c r="W151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I152">
         <v>151</v>
       </c>
       <c r="J152" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K152">
         <v>49</v>
@@ -7567,13 +8023,13 @@
         <v>93</v>
       </c>
       <c r="M152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N152" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q152" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T152">
         <v>0</v>
@@ -7587,19 +8043,22 @@
       <c r="W152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I153">
         <v>152</v>
       </c>
       <c r="J153" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K153">
         <v>49</v>
@@ -7608,13 +8067,13 @@
         <v>93</v>
       </c>
       <c r="M153" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N153" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q153" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T153">
         <v>0</v>
@@ -7628,19 +8087,22 @@
       <c r="W153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I154">
         <v>153</v>
       </c>
       <c r="J154" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K154">
         <v>49</v>
@@ -7649,13 +8111,13 @@
         <v>93</v>
       </c>
       <c r="M154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N154" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T154">
         <v>0</v>
@@ -7669,19 +8131,22 @@
       <c r="W154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I155">
         <v>154</v>
       </c>
       <c r="J155" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K155">
         <v>49</v>
@@ -7690,13 +8155,13 @@
         <v>93</v>
       </c>
       <c r="M155" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N155" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T155">
         <v>0</v>
@@ -7710,19 +8175,22 @@
       <c r="W155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="X155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I156">
         <v>155</v>
       </c>
       <c r="J156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K156">
         <v>49</v>
@@ -7731,13 +8199,13 @@
         <v>93</v>
       </c>
       <c r="M156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N156" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Q156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T156">
         <v>0</v>
@@ -7751,19 +8219,22 @@
       <c r="W156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I157">
         <v>156</v>
       </c>
       <c r="J157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K157">
         <v>50</v>
@@ -7772,13 +8243,13 @@
         <v>94</v>
       </c>
       <c r="M157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N157" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Q157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T157">
         <v>0</v>
@@ -7792,19 +8263,22 @@
       <c r="W157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I158">
         <v>157</v>
       </c>
       <c r="J158" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K158">
         <v>50</v>
@@ -7813,13 +8287,13 @@
         <v>94</v>
       </c>
       <c r="M158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N158" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Q158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T158">
         <v>0</v>
@@ -7833,19 +8307,22 @@
       <c r="W158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I159">
         <v>158</v>
       </c>
       <c r="J159" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K159">
         <v>51</v>
@@ -7854,13 +8331,13 @@
         <v>95</v>
       </c>
       <c r="M159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N159" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q159" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T159">
         <v>0</v>
@@ -7874,19 +8351,22 @@
       <c r="W159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I160">
         <v>159</v>
       </c>
       <c r="J160" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K160">
         <v>52</v>
@@ -7895,13 +8375,13 @@
         <v>96</v>
       </c>
       <c r="M160" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N160" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Q160" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T160">
         <v>0</v>
@@ -7915,19 +8395,22 @@
       <c r="W160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I161">
         <v>160</v>
       </c>
       <c r="J161" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K161">
         <v>53</v>
@@ -7936,13 +8419,13 @@
         <v>98</v>
       </c>
       <c r="M161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N161" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q161" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T161">
         <v>0</v>
@@ -7956,19 +8439,22 @@
       <c r="W161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I162">
         <v>161</v>
       </c>
       <c r="J162" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K162">
         <v>53</v>
@@ -7977,13 +8463,13 @@
         <v>98</v>
       </c>
       <c r="M162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N162" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q162" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T162">
         <v>0</v>
@@ -7997,19 +8483,22 @@
       <c r="W162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I163">
         <v>162</v>
       </c>
       <c r="J163" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K163">
         <v>53</v>
@@ -8018,13 +8507,13 @@
         <v>98</v>
       </c>
       <c r="M163" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N163" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Q163" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T163">
         <v>0</v>
@@ -8038,19 +8527,22 @@
       <c r="W163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="X163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I164">
         <v>163</v>
       </c>
       <c r="J164" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K164">
         <v>54</v>
@@ -8059,13 +8551,13 @@
         <v>99</v>
       </c>
       <c r="M164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N164" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q164" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T164">
         <v>0</v>
@@ -8079,19 +8571,22 @@
       <c r="W164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="X164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I165">
         <v>164</v>
       </c>
       <c r="J165" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K165">
         <v>54</v>
@@ -8100,13 +8595,13 @@
         <v>99</v>
       </c>
       <c r="M165" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N165" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q165" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T165">
         <v>0</v>
@@ -8120,19 +8615,22 @@
       <c r="W165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="X165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I166">
         <v>165</v>
       </c>
       <c r="J166" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K166">
         <v>54</v>
@@ -8141,13 +8639,13 @@
         <v>99</v>
       </c>
       <c r="M166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N166" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q166" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T166">
         <v>0</v>
@@ -8161,19 +8659,22 @@
       <c r="W166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I167">
         <v>166</v>
       </c>
       <c r="J167" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K167">
         <v>54</v>
@@ -8182,13 +8683,13 @@
         <v>99</v>
       </c>
       <c r="M167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N167" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q167" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T167">
         <v>0</v>
@@ -8202,19 +8703,22 @@
       <c r="W167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I168">
         <v>167</v>
       </c>
       <c r="J168" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K168">
         <v>54</v>
@@ -8223,13 +8727,13 @@
         <v>99</v>
       </c>
       <c r="M168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N168" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q168" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -8243,19 +8747,22 @@
       <c r="W168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I169">
         <v>168</v>
       </c>
       <c r="J169" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K169">
         <v>54</v>
@@ -8264,13 +8771,13 @@
         <v>99</v>
       </c>
       <c r="M169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N169" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q169" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T169">
         <v>0</v>
@@ -8284,19 +8791,22 @@
       <c r="W169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I170">
         <v>169</v>
       </c>
       <c r="J170" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K170">
         <v>54</v>
@@ -8305,13 +8815,13 @@
         <v>99</v>
       </c>
       <c r="M170" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N170" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q170" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T170">
         <v>0</v>
@@ -8325,19 +8835,22 @@
       <c r="W170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="X170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I171">
         <v>170</v>
       </c>
       <c r="J171" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K171">
         <v>54</v>
@@ -8346,13 +8859,13 @@
         <v>99</v>
       </c>
       <c r="M171" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N171" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q171" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T171">
         <v>0</v>
@@ -8366,19 +8879,22 @@
       <c r="W171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I172">
         <v>171</v>
       </c>
       <c r="J172" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K172">
         <v>55</v>
@@ -8387,13 +8903,13 @@
         <v>100</v>
       </c>
       <c r="M172" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N172" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q172" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T172">
         <v>0</v>
@@ -8407,19 +8923,22 @@
       <c r="W172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I173">
         <v>172</v>
       </c>
       <c r="J173" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K173">
         <v>55</v>
@@ -8428,13 +8947,13 @@
         <v>100</v>
       </c>
       <c r="M173" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N173" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q173" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T173">
         <v>0</v>
@@ -8448,19 +8967,22 @@
       <c r="W173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I174">
         <v>173</v>
       </c>
       <c r="J174" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K174">
         <v>56</v>
@@ -8469,13 +8991,13 @@
         <v>101</v>
       </c>
       <c r="M174" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N174" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q174" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T174">
         <v>0</v>
@@ -8489,19 +9011,22 @@
       <c r="W174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="X174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I175">
         <v>174</v>
       </c>
       <c r="J175" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K175">
         <v>56</v>
@@ -8510,13 +9035,13 @@
         <v>101</v>
       </c>
       <c r="M175" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N175" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q175" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T175">
         <v>0</v>
@@ -8530,19 +9055,22 @@
       <c r="W175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="X175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I176">
         <v>175</v>
       </c>
       <c r="J176" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K176">
         <v>56</v>
@@ -8551,13 +9079,13 @@
         <v>101</v>
       </c>
       <c r="M176" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N176" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q176" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T176">
         <v>0</v>
@@ -8571,19 +9099,22 @@
       <c r="W176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I177">
         <v>176</v>
       </c>
       <c r="J177" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K177">
         <v>56</v>
@@ -8592,13 +9123,13 @@
         <v>101</v>
       </c>
       <c r="M177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N177" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T177">
         <v>0</v>
@@ -8612,19 +9143,22 @@
       <c r="W177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I178">
         <v>177</v>
       </c>
       <c r="J178" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K178">
         <v>57</v>
@@ -8633,13 +9167,13 @@
         <v>102</v>
       </c>
       <c r="M178" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N178" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Q178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T178">
         <v>0</v>
@@ -8653,19 +9187,22 @@
       <c r="W178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I179">
         <v>178</v>
       </c>
       <c r="J179" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K179">
         <v>58</v>
@@ -8674,13 +9211,13 @@
         <v>103</v>
       </c>
       <c r="M179" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N179" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Q179" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T179">
         <v>0</v>
@@ -8694,19 +9231,22 @@
       <c r="W179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I180">
         <v>179</v>
       </c>
       <c r="J180" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K180">
         <v>59</v>
@@ -8715,13 +9255,13 @@
         <v>104</v>
       </c>
       <c r="M180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N180" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q180" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T180">
         <v>0</v>
@@ -8735,19 +9275,22 @@
       <c r="W180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I181">
         <v>180</v>
       </c>
       <c r="J181" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K181">
         <v>59</v>
@@ -8756,13 +9299,13 @@
         <v>104</v>
       </c>
       <c r="M181" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N181" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q181" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T181">
         <v>0</v>
@@ -8776,19 +9319,22 @@
       <c r="W181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="X181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I182">
         <v>181</v>
       </c>
       <c r="J182" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K182">
         <v>59</v>
@@ -8797,13 +9343,13 @@
         <v>104</v>
       </c>
       <c r="M182" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N182" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q182" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T182">
         <v>0</v>
@@ -8817,19 +9363,22 @@
       <c r="W182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="X182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I183">
         <v>182</v>
       </c>
       <c r="J183" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K183">
         <v>60</v>
@@ -8838,13 +9387,13 @@
         <v>105</v>
       </c>
       <c r="M183" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N183" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Q183" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T183">
         <v>0</v>
@@ -8858,19 +9407,22 @@
       <c r="W183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="X183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I184">
         <v>183</v>
       </c>
       <c r="J184" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K184">
         <v>61</v>
@@ -8879,13 +9431,13 @@
         <v>106</v>
       </c>
       <c r="M184" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N184" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q184" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T184">
         <v>0</v>
@@ -8899,19 +9451,22 @@
       <c r="W184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="X184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I185">
         <v>184</v>
       </c>
       <c r="J185" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K185">
         <v>62</v>
@@ -8920,13 +9475,13 @@
         <v>109</v>
       </c>
       <c r="M185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N185" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="Q185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T185">
         <v>0</v>
@@ -8940,19 +9495,22 @@
       <c r="W185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="X185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I186">
         <v>185</v>
       </c>
       <c r="J186" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K186">
         <v>63</v>
@@ -8961,13 +9519,13 @@
         <v>110</v>
       </c>
       <c r="M186" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N186" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Q186" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T186">
         <v>0</v>
@@ -8981,19 +9539,22 @@
       <c r="W186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I187">
         <v>186</v>
       </c>
       <c r="J187" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K187">
         <v>63</v>
@@ -9002,13 +9563,13 @@
         <v>110</v>
       </c>
       <c r="M187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N187" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Q187" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T187">
         <v>0</v>
@@ -9022,19 +9583,22 @@
       <c r="W187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="X187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I188">
         <v>187</v>
       </c>
       <c r="J188" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K188">
         <v>64</v>
@@ -9043,13 +9607,13 @@
         <v>111</v>
       </c>
       <c r="M188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N188" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Q188" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T188">
         <v>0</v>
@@ -9063,19 +9627,22 @@
       <c r="W188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="X188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I189">
         <v>188</v>
       </c>
       <c r="J189" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K189">
         <v>65</v>
@@ -9084,13 +9651,13 @@
         <v>113</v>
       </c>
       <c r="M189" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N189" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Q189" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T189">
         <v>0</v>
@@ -9104,19 +9671,22 @@
       <c r="W189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="X189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I190">
         <v>189</v>
       </c>
       <c r="J190" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K190">
         <v>66</v>
@@ -9125,13 +9695,13 @@
         <v>114</v>
       </c>
       <c r="M190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N190" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="Q190" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T190">
         <v>0</v>
@@ -9145,19 +9715,22 @@
       <c r="W190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="X190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I191">
         <v>190</v>
       </c>
       <c r="J191" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K191">
         <v>67</v>
@@ -9166,13 +9739,13 @@
         <v>115</v>
       </c>
       <c r="M191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N191" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Q191" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T191">
         <v>0</v>
@@ -9186,19 +9759,22 @@
       <c r="W191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="X191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I192">
         <v>191</v>
       </c>
       <c r="J192" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K192">
         <v>68</v>
@@ -9207,13 +9783,13 @@
         <v>117</v>
       </c>
       <c r="M192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N192" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="Q192" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T192">
         <v>0</v>
@@ -9227,19 +9803,22 @@
       <c r="W192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="X192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I193">
         <v>192</v>
       </c>
       <c r="J193" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K193">
         <v>69</v>
@@ -9248,13 +9827,13 @@
         <v>118</v>
       </c>
       <c r="M193" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N193" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="Q193" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T193">
         <v>0</v>
@@ -9268,19 +9847,22 @@
       <c r="W193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="X193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I194">
         <v>193</v>
       </c>
       <c r="J194" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K194">
         <v>70</v>
@@ -9289,13 +9871,13 @@
         <v>119</v>
       </c>
       <c r="M194" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N194" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q194" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T194">
         <v>0</v>
@@ -9309,19 +9891,22 @@
       <c r="W194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I195">
         <v>194</v>
       </c>
       <c r="J195" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K195">
         <v>70</v>
@@ -9330,13 +9915,13 @@
         <v>119</v>
       </c>
       <c r="M195" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N195" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q195" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T195">
         <v>0</v>
@@ -9350,19 +9935,22 @@
       <c r="W195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="X195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I196">
         <v>195</v>
       </c>
       <c r="J196" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K196">
         <v>70</v>
@@ -9371,13 +9959,13 @@
         <v>119</v>
       </c>
       <c r="M196" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N196" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q196" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T196">
         <v>0</v>
@@ -9391,19 +9979,22 @@
       <c r="W196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I197">
         <v>196</v>
       </c>
       <c r="J197" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K197">
         <v>70</v>
@@ -9412,13 +10003,13 @@
         <v>119</v>
       </c>
       <c r="M197" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N197" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q197" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T197">
         <v>0</v>
@@ -9432,19 +10023,22 @@
       <c r="W197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="X197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I198">
         <v>197</v>
       </c>
       <c r="J198" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K198">
         <v>70</v>
@@ -9453,13 +10047,13 @@
         <v>119</v>
       </c>
       <c r="M198" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N198" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q198" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T198">
         <v>0</v>
@@ -9473,19 +10067,22 @@
       <c r="W198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I199">
         <v>198</v>
       </c>
       <c r="J199" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K199">
         <v>70</v>
@@ -9494,13 +10091,13 @@
         <v>119</v>
       </c>
       <c r="M199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N199" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T199">
         <v>0</v>
@@ -9514,19 +10111,22 @@
       <c r="W199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="X199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I200">
         <v>199</v>
       </c>
       <c r="J200" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K200">
         <v>70</v>
@@ -9535,13 +10135,13 @@
         <v>119</v>
       </c>
       <c r="M200" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N200" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q200" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T200">
         <v>0</v>
@@ -9555,19 +10155,22 @@
       <c r="W200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="X200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I201">
         <v>200</v>
       </c>
       <c r="J201" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K201">
         <v>70</v>
@@ -9576,13 +10179,13 @@
         <v>119</v>
       </c>
       <c r="M201" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N201" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q201" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T201">
         <v>0</v>
@@ -9596,19 +10199,22 @@
       <c r="W201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="X201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I202">
         <v>201</v>
       </c>
       <c r="J202" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K202">
         <v>70</v>
@@ -9617,13 +10223,13 @@
         <v>119</v>
       </c>
       <c r="M202" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N202" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q202" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T202">
         <v>0</v>
@@ -9637,19 +10243,22 @@
       <c r="W202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="X202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I203">
         <v>202</v>
       </c>
       <c r="J203" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K203">
         <v>70</v>
@@ -9658,13 +10267,13 @@
         <v>119</v>
       </c>
       <c r="M203" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N203" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q203" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T203">
         <v>0</v>
@@ -9678,19 +10287,22 @@
       <c r="W203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I204">
         <v>203</v>
       </c>
       <c r="J204" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K204">
         <v>70</v>
@@ -9699,13 +10311,13 @@
         <v>119</v>
       </c>
       <c r="M204" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N204" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q204" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T204">
         <v>0</v>
@@ -9719,19 +10331,22 @@
       <c r="W204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="X204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I205">
         <v>204</v>
       </c>
       <c r="J205" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K205">
         <v>70</v>
@@ -9740,13 +10355,13 @@
         <v>119</v>
       </c>
       <c r="M205" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N205" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q205" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T205">
         <v>0</v>
@@ -9760,19 +10375,22 @@
       <c r="W205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="X205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I206">
         <v>205</v>
       </c>
       <c r="J206" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K206">
         <v>70</v>
@@ -9781,13 +10399,13 @@
         <v>119</v>
       </c>
       <c r="M206" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N206" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q206" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T206">
         <v>0</v>
@@ -9801,19 +10419,22 @@
       <c r="W206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:23">
+      <c r="X206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I207">
         <v>206</v>
       </c>
       <c r="J207" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K207">
         <v>70</v>
@@ -9822,13 +10443,13 @@
         <v>119</v>
       </c>
       <c r="M207" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N207" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q207" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T207">
         <v>0</v>
@@ -9842,19 +10463,22 @@
       <c r="W207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="X207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I208">
         <v>207</v>
       </c>
       <c r="J208" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K208">
         <v>70</v>
@@ -9863,13 +10487,13 @@
         <v>119</v>
       </c>
       <c r="M208" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N208" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q208" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T208">
         <v>0</v>
@@ -9883,19 +10507,22 @@
       <c r="W208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:23">
+      <c r="X208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I209">
         <v>208</v>
       </c>
       <c r="J209" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K209">
         <v>70</v>
@@ -9904,13 +10531,13 @@
         <v>119</v>
       </c>
       <c r="M209" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N209" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q209" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T209">
         <v>0</v>
@@ -9924,19 +10551,22 @@
       <c r="W209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:23">
+      <c r="X209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I210">
         <v>209</v>
       </c>
       <c r="J210" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K210">
         <v>70</v>
@@ -9945,13 +10575,13 @@
         <v>119</v>
       </c>
       <c r="M210" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N210" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q210" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T210">
         <v>0</v>
@@ -9965,19 +10595,22 @@
       <c r="W210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:23">
+      <c r="X210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I211">
         <v>210</v>
       </c>
       <c r="J211" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K211">
         <v>70</v>
@@ -9986,13 +10619,13 @@
         <v>119</v>
       </c>
       <c r="M211" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N211" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q211" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T211">
         <v>0</v>
@@ -10006,19 +10639,22 @@
       <c r="W211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="X211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I212">
         <v>211</v>
       </c>
       <c r="J212" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K212">
         <v>70</v>
@@ -10027,13 +10663,13 @@
         <v>119</v>
       </c>
       <c r="M212" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N212" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q212" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T212">
         <v>0</v>
@@ -10047,19 +10683,22 @@
       <c r="W212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="X212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I213">
         <v>212</v>
       </c>
       <c r="J213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K213">
         <v>70</v>
@@ -10068,13 +10707,13 @@
         <v>119</v>
       </c>
       <c r="M213" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N213" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q213" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T213">
         <v>0</v>
@@ -10086,6 +10725,9 @@
         <v>0</v>
       </c>
       <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -4992,13 +4992,13 @@
         <v>307</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U96">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V96">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -5030,13 +5030,13 @@
         <v>307</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U97">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V97">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="98" spans="1:22">

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -6094,13 +6094,13 @@
         <v>307</v>
       </c>
       <c r="T125">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U125">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V125">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -6132,13 +6132,13 @@
         <v>307</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U126">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V126">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -6170,13 +6170,13 @@
         <v>307</v>
       </c>
       <c r="T127">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U127">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V127">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -6208,13 +6208,13 @@
         <v>307</v>
       </c>
       <c r="T128">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U128">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V128">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -6246,13 +6246,13 @@
         <v>307</v>
       </c>
       <c r="T129">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U129">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V129">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -6284,13 +6284,13 @@
         <v>307</v>
       </c>
       <c r="T130">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U130">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V130">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -6322,13 +6322,13 @@
         <v>307</v>
       </c>
       <c r="T131">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U131">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V131">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -6360,13 +6360,13 @@
         <v>307</v>
       </c>
       <c r="T132">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U132">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V132">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -6398,13 +6398,13 @@
         <v>307</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -6436,13 +6436,13 @@
         <v>307</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U134">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V134">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="135" spans="1:22">

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -6094,13 +6094,13 @@
         <v>307</v>
       </c>
       <c r="T125">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U125">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V125">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -6132,13 +6132,13 @@
         <v>307</v>
       </c>
       <c r="T126">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U126">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V126">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -6170,13 +6170,13 @@
         <v>307</v>
       </c>
       <c r="T127">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U127">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V127">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -6208,13 +6208,13 @@
         <v>307</v>
       </c>
       <c r="T128">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U128">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V128">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -6246,13 +6246,13 @@
         <v>307</v>
       </c>
       <c r="T129">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U129">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V129">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -6284,13 +6284,13 @@
         <v>307</v>
       </c>
       <c r="T130">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U130">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V130">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -6322,13 +6322,13 @@
         <v>307</v>
       </c>
       <c r="T131">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U131">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V131">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -6360,13 +6360,13 @@
         <v>307</v>
       </c>
       <c r="T132">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U132">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V132">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -6398,13 +6398,13 @@
         <v>307</v>
       </c>
       <c r="T133">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U133">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V133">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -6436,13 +6436,13 @@
         <v>307</v>
       </c>
       <c r="T134">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U134">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V134">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:22">

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Jose\Downloads\bucles\files\separadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D361E3-7106-448E-9104-98CE47F5A159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44613F54-5C94-41E4-BBA6-7F165D26806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="38400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="307">
   <si>
     <t>p18_act</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -966,7 +963,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1022,7 +1019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,15 +1322,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U213"/>
+  <dimension ref="A1:T213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,22 +1391,19 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1418,33 +1412,30 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>44992.706018518518</v>
       </c>
       <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1453,33 +1444,30 @@
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
         <v>44998.826516203713</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1488,33 +1476,30 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2">
         <v>45013.731631944444</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1523,33 +1508,30 @@
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>45021.788078703707</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1558,33 +1540,30 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T6">
         <v>0.3</v>
       </c>
-      <c r="U6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1593,33 +1572,30 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T7">
         <v>0.6</v>
       </c>
-      <c r="U7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1628,33 +1604,30 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T8">
         <v>0.3</v>
       </c>
-      <c r="U8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1663,33 +1636,30 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T9">
         <v>0.6</v>
       </c>
-      <c r="U9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1698,33 +1668,30 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="2">
         <v>45027.659305555557</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1733,33 +1700,30 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11" s="2">
         <v>45028.798703703702</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -1768,33 +1732,30 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1803,33 +1764,30 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1838,33 +1796,30 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -1873,33 +1828,30 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -1908,33 +1860,30 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -1943,33 +1892,30 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N17" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="Q17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -1978,33 +1924,30 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N18" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2013,33 +1956,30 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" s="2">
         <v>45028.887245370373</v>
       </c>
       <c r="Q19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20">
         <v>11</v>
@@ -2048,33 +1988,30 @@
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N20" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Q20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21">
         <v>11</v>
@@ -2083,33 +2020,30 @@
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N21" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2118,33 +2052,30 @@
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N22" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23">
         <v>11</v>
@@ -2153,33 +2084,30 @@
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N23" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Q23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2188,33 +2116,30 @@
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N24" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -2223,33 +2148,30 @@
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N25" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -2258,33 +2180,30 @@
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N26" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="Q26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -2293,33 +2212,30 @@
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N27" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="Q27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28">
         <v>12</v>
@@ -2328,33 +2244,30 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N28" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -2363,33 +2276,30 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N29" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="Q29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30">
         <v>12</v>
@@ -2398,33 +2308,30 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N30" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31">
         <v>13</v>
@@ -2433,33 +2340,30 @@
         <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N31" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="Q31" t="s">
+        <v>67</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -2468,33 +2372,30 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N32" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="Q32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K33">
         <v>14</v>
@@ -2503,33 +2404,30 @@
         <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N33" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="Q33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34">
         <v>14</v>
@@ -2538,33 +2436,30 @@
         <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N34" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K35">
         <v>15</v>
@@ -2573,33 +2468,30 @@
         <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N35" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -2608,33 +2500,30 @@
         <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N36" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K37">
         <v>16</v>
@@ -2643,33 +2532,30 @@
         <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N37" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="Q37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38">
         <v>17</v>
@@ -2678,33 +2564,30 @@
         <v>26</v>
       </c>
       <c r="M38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N38" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="Q38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K39">
         <v>18</v>
@@ -2713,33 +2596,30 @@
         <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N39" s="2">
         <v>45030.793912037043</v>
       </c>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -2748,33 +2628,30 @@
         <v>30</v>
       </c>
       <c r="M40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N40" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Q40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K41">
         <v>19</v>
@@ -2783,33 +2660,30 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N41" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Q41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K42">
         <v>19</v>
@@ -2818,33 +2692,30 @@
         <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N42" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Q42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K43">
         <v>19</v>
@@ -2853,33 +2724,30 @@
         <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N43" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Q43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44">
         <v>19</v>
@@ -2888,33 +2756,30 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N44" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K45">
         <v>20</v>
@@ -2923,33 +2788,30 @@
         <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N45" s="2">
         <v>45030.958981481483</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K46">
         <v>21</v>
@@ -2958,33 +2820,30 @@
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N46" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T46">
         <v>0.6</v>
       </c>
-      <c r="U46">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K47">
         <v>22</v>
@@ -2993,33 +2852,30 @@
         <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N47" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="Q47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K48">
         <v>22</v>
@@ -3028,33 +2884,30 @@
         <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N48" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="Q48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K49">
         <v>22</v>
@@ -3063,33 +2916,30 @@
         <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N49" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K50">
         <v>23</v>
@@ -3098,33 +2948,30 @@
         <v>38</v>
       </c>
       <c r="M50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N50" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="Q50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K51">
         <v>23</v>
@@ -3133,33 +2980,30 @@
         <v>38</v>
       </c>
       <c r="M51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N51" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="Q51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K52">
         <v>23</v>
@@ -3168,33 +3012,30 @@
         <v>38</v>
       </c>
       <c r="M52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N52" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="Q52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K53">
         <v>23</v>
@@ -3203,33 +3044,30 @@
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N53" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="Q53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K54">
         <v>23</v>
@@ -3238,33 +3076,30 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N54" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="Q54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K55">
         <v>23</v>
@@ -3273,33 +3108,30 @@
         <v>38</v>
       </c>
       <c r="M55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N55" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K56">
         <v>23</v>
@@ -3308,33 +3140,30 @@
         <v>38</v>
       </c>
       <c r="M56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N56" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K57">
         <v>24</v>
@@ -3343,33 +3172,30 @@
         <v>51</v>
       </c>
       <c r="M57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N57" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Q57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K58">
         <v>24</v>
@@ -3378,33 +3204,30 @@
         <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N58" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Q58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K59">
         <v>24</v>
@@ -3413,33 +3236,30 @@
         <v>51</v>
       </c>
       <c r="M59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N59" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Q59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K60">
         <v>24</v>
@@ -3448,33 +3268,30 @@
         <v>51</v>
       </c>
       <c r="M60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N60" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Q60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K61">
         <v>24</v>
@@ -3483,33 +3300,30 @@
         <v>51</v>
       </c>
       <c r="M61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N61" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Q61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K62">
         <v>24</v>
@@ -3518,33 +3332,30 @@
         <v>51</v>
       </c>
       <c r="M62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N62" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Q62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K63">
         <v>24</v>
@@ -3553,33 +3364,30 @@
         <v>51</v>
       </c>
       <c r="M63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N63" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="Q63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K64">
         <v>25</v>
@@ -3588,33 +3396,30 @@
         <v>52</v>
       </c>
       <c r="M64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N64" s="2">
         <v>45033.799467592587</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K65">
         <v>26</v>
@@ -3623,33 +3428,30 @@
         <v>55</v>
       </c>
       <c r="M65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N65" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="Q65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K66">
         <v>27</v>
@@ -3658,33 +3460,30 @@
         <v>56</v>
       </c>
       <c r="M66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N66" s="2">
         <v>45034.645821759259</v>
       </c>
       <c r="Q66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K67">
         <v>28</v>
@@ -3693,33 +3492,30 @@
         <v>57</v>
       </c>
       <c r="M67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N67" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K68">
         <v>28</v>
@@ -3728,33 +3524,30 @@
         <v>57</v>
       </c>
       <c r="M68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K69">
         <v>28</v>
@@ -3763,33 +3556,30 @@
         <v>57</v>
       </c>
       <c r="M69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K70">
         <v>28</v>
@@ -3798,33 +3588,30 @@
         <v>57</v>
       </c>
       <c r="M70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K71">
         <v>28</v>
@@ -3833,33 +3620,30 @@
         <v>57</v>
       </c>
       <c r="M71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K72">
         <v>28</v>
@@ -3868,33 +3652,30 @@
         <v>57</v>
       </c>
       <c r="M72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N72" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K73">
         <v>29</v>
@@ -3903,33 +3684,30 @@
         <v>58</v>
       </c>
       <c r="M73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N73" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="Q73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T73">
         <v>0</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K74">
         <v>29</v>
@@ -3938,33 +3716,30 @@
         <v>58</v>
       </c>
       <c r="M74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N74" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K75">
         <v>29</v>
@@ -3973,33 +3748,30 @@
         <v>58</v>
       </c>
       <c r="M75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N75" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T75">
         <v>0</v>
       </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K76">
         <v>30</v>
@@ -4008,33 +3780,30 @@
         <v>59</v>
       </c>
       <c r="M76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N76" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Q76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K77">
         <v>30</v>
@@ -4043,33 +3812,30 @@
         <v>59</v>
       </c>
       <c r="M77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N77" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Q77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T77">
         <v>0</v>
       </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K78">
         <v>30</v>
@@ -4078,33 +3844,30 @@
         <v>59</v>
       </c>
       <c r="M78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N78" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K79">
         <v>30</v>
@@ -4113,33 +3876,30 @@
         <v>59</v>
       </c>
       <c r="M79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N79" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K80">
         <v>30</v>
@@ -4148,33 +3908,30 @@
         <v>59</v>
       </c>
       <c r="M80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N80" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Q80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K81">
         <v>30</v>
@@ -4183,33 +3940,30 @@
         <v>59</v>
       </c>
       <c r="M81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N81" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Q81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T81">
         <v>0</v>
       </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K82">
         <v>30</v>
@@ -4218,33 +3972,30 @@
         <v>59</v>
       </c>
       <c r="M82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N82" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K83">
         <v>30</v>
@@ -4253,33 +4004,30 @@
         <v>59</v>
       </c>
       <c r="M83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N83" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="Q83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T83">
         <v>0</v>
       </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I84">
         <v>83</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K84">
         <v>31</v>
@@ -4288,33 +4036,30 @@
         <v>60</v>
       </c>
       <c r="M84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N84" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="Q84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T84">
         <v>0</v>
       </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I85">
         <v>84</v>
       </c>
       <c r="J85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K85">
         <v>31</v>
@@ -4323,33 +4068,30 @@
         <v>60</v>
       </c>
       <c r="M85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N85" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="Q85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I86">
         <v>85</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K86">
         <v>32</v>
@@ -4358,33 +4100,30 @@
         <v>61</v>
       </c>
       <c r="M86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N86" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="Q86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T86">
         <v>0</v>
       </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I87">
         <v>86</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K87">
         <v>33</v>
@@ -4393,33 +4132,30 @@
         <v>63</v>
       </c>
       <c r="M87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N87" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T87">
         <v>0</v>
       </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I88">
         <v>87</v>
       </c>
       <c r="J88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K88">
         <v>33</v>
@@ -4428,33 +4164,30 @@
         <v>63</v>
       </c>
       <c r="M88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N88" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Q88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T88">
         <v>0</v>
       </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I89">
         <v>88</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K89">
         <v>33</v>
@@ -4463,33 +4196,30 @@
         <v>63</v>
       </c>
       <c r="M89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N89" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I90">
         <v>89</v>
       </c>
       <c r="J90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K90">
         <v>33</v>
@@ -4498,33 +4228,30 @@
         <v>63</v>
       </c>
       <c r="M90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N90" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I91">
         <v>90</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K91">
         <v>33</v>
@@ -4533,33 +4260,30 @@
         <v>63</v>
       </c>
       <c r="M91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N91" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Q91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T91">
         <v>0</v>
       </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I92">
         <v>91</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K92">
         <v>33</v>
@@ -4568,33 +4292,30 @@
         <v>63</v>
       </c>
       <c r="M92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N92" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="Q92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T92">
         <v>0</v>
       </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I93">
         <v>92</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K93">
         <v>34</v>
@@ -4603,33 +4324,30 @@
         <v>64</v>
       </c>
       <c r="M93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N93" s="2">
         <v>45035.836608796293</v>
       </c>
       <c r="Q93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T93">
         <v>0</v>
       </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I94">
         <v>93</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K94">
         <v>34</v>
@@ -4638,33 +4356,30 @@
         <v>64</v>
       </c>
       <c r="M94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N94" s="2">
         <v>45035.836608796293</v>
       </c>
       <c r="Q94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T94">
         <v>0</v>
       </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I95">
         <v>94</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K95">
         <v>35</v>
@@ -4673,33 +4388,30 @@
         <v>75</v>
       </c>
       <c r="M95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N95" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T95">
         <v>0</v>
       </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I96">
         <v>95</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K96">
         <v>36</v>
@@ -4708,33 +4420,30 @@
         <v>77</v>
       </c>
       <c r="M96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N96" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Q96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T96">
         <v>0.6</v>
       </c>
-      <c r="U96">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I97">
         <v>96</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K97">
         <v>36</v>
@@ -4743,33 +4452,30 @@
         <v>77</v>
       </c>
       <c r="M97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N97" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T97">
         <v>0.6</v>
       </c>
-      <c r="U97">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I98">
         <v>97</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K98">
         <v>37</v>
@@ -4778,33 +4484,30 @@
         <v>78</v>
       </c>
       <c r="M98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N98" s="2">
         <v>45041.153495370367</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I99">
         <v>98</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K99">
         <v>38</v>
@@ -4813,33 +4516,30 @@
         <v>80</v>
       </c>
       <c r="M99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N99" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="Q99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I100">
         <v>99</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K100">
         <v>38</v>
@@ -4848,33 +4548,30 @@
         <v>80</v>
       </c>
       <c r="M100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N100" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="Q100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K101">
         <v>38</v>
@@ -4883,33 +4580,30 @@
         <v>80</v>
       </c>
       <c r="M101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N101" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I102">
         <v>101</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K102">
         <v>38</v>
@@ -4918,33 +4612,30 @@
         <v>80</v>
       </c>
       <c r="M102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N102" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I103">
         <v>102</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K103">
         <v>38</v>
@@ -4953,33 +4644,30 @@
         <v>80</v>
       </c>
       <c r="M103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N103" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="Q103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I104">
         <v>103</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K104">
         <v>39</v>
@@ -4988,33 +4676,30 @@
         <v>81</v>
       </c>
       <c r="M104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N104" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I105">
         <v>104</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K105">
         <v>39</v>
@@ -5023,33 +4708,30 @@
         <v>81</v>
       </c>
       <c r="M105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N105" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I106">
         <v>105</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K106">
         <v>39</v>
@@ -5058,33 +4740,30 @@
         <v>81</v>
       </c>
       <c r="M106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N106" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I107">
         <v>106</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K107">
         <v>39</v>
@@ -5093,33 +4772,30 @@
         <v>81</v>
       </c>
       <c r="M107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N107" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I108">
         <v>107</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K108">
         <v>39</v>
@@ -5128,33 +4804,30 @@
         <v>81</v>
       </c>
       <c r="M108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N108" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
-      <c r="U108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I109">
         <v>108</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K109">
         <v>39</v>
@@ -5163,33 +4836,30 @@
         <v>81</v>
       </c>
       <c r="M109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N109" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I110">
         <v>109</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K110">
         <v>39</v>
@@ -5198,33 +4868,30 @@
         <v>81</v>
       </c>
       <c r="M110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N110" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T110">
         <v>0</v>
       </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I111">
         <v>110</v>
       </c>
       <c r="J111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K111">
         <v>39</v>
@@ -5233,33 +4900,30 @@
         <v>81</v>
       </c>
       <c r="M111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N111" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T111">
         <v>0</v>
       </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I112">
         <v>111</v>
       </c>
       <c r="J112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K112">
         <v>39</v>
@@ -5268,33 +4932,30 @@
         <v>81</v>
       </c>
       <c r="M112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N112" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I113">
         <v>112</v>
       </c>
       <c r="J113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K113">
         <v>39</v>
@@ -5303,33 +4964,30 @@
         <v>81</v>
       </c>
       <c r="M113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N113" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I114">
         <v>113</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K114">
         <v>39</v>
@@ -5338,33 +4996,30 @@
         <v>81</v>
       </c>
       <c r="M114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N114" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T114">
         <v>0</v>
       </c>
-      <c r="U114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I115">
         <v>114</v>
       </c>
       <c r="J115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K115">
         <v>39</v>
@@ -5373,33 +5028,30 @@
         <v>81</v>
       </c>
       <c r="M115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N115" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T115">
         <v>0</v>
       </c>
-      <c r="U115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I116">
         <v>115</v>
       </c>
       <c r="J116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K116">
         <v>39</v>
@@ -5408,33 +5060,30 @@
         <v>81</v>
       </c>
       <c r="M116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N116" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="Q116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T116">
         <v>0</v>
       </c>
-      <c r="U116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I117">
         <v>116</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K117">
         <v>40</v>
@@ -5443,33 +5092,30 @@
         <v>82</v>
       </c>
       <c r="M117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N117" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="Q117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
-      <c r="U117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I118">
         <v>117</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K118">
         <v>40</v>
@@ -5478,33 +5124,30 @@
         <v>82</v>
       </c>
       <c r="M118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N118" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="Q118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T118">
         <v>0</v>
       </c>
-      <c r="U118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I119">
         <v>118</v>
       </c>
       <c r="J119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K119">
         <v>41</v>
@@ -5513,33 +5156,30 @@
         <v>83</v>
       </c>
       <c r="M119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N119" s="2">
         <v>45042.864039351851</v>
       </c>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T119">
         <v>0</v>
       </c>
-      <c r="U119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I120">
         <v>119</v>
       </c>
       <c r="J120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K120">
         <v>42</v>
@@ -5548,33 +5188,30 @@
         <v>84</v>
       </c>
       <c r="M120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N120" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Q120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T120">
         <v>0</v>
       </c>
-      <c r="U120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I121">
         <v>120</v>
       </c>
       <c r="J121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K121">
         <v>42</v>
@@ -5583,33 +5220,30 @@
         <v>84</v>
       </c>
       <c r="M121" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N121" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Q121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T121">
         <v>0</v>
       </c>
-      <c r="U121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I122">
         <v>121</v>
       </c>
       <c r="J122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K122">
         <v>42</v>
@@ -5618,33 +5252,30 @@
         <v>84</v>
       </c>
       <c r="M122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N122" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Q122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T122">
         <v>0</v>
       </c>
-      <c r="U122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I123">
         <v>122</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K123">
         <v>42</v>
@@ -5653,33 +5284,30 @@
         <v>84</v>
       </c>
       <c r="M123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N123" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="Q123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T123">
         <v>0</v>
       </c>
-      <c r="U123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I124">
         <v>123</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K124">
         <v>43</v>
@@ -5688,33 +5316,30 @@
         <v>86</v>
       </c>
       <c r="M124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N124" s="2">
         <v>45043.572395833333</v>
       </c>
       <c r="Q124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T124">
         <v>0</v>
       </c>
-      <c r="U124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I125">
         <v>124</v>
       </c>
       <c r="J125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K125">
         <v>44</v>
@@ -5723,33 +5348,30 @@
         <v>87</v>
       </c>
       <c r="M125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N125" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T125">
         <v>0.6</v>
       </c>
-      <c r="U125">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I126">
         <v>125</v>
       </c>
       <c r="J126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K126">
         <v>44</v>
@@ -5758,33 +5380,30 @@
         <v>87</v>
       </c>
       <c r="M126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N126" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T126">
         <v>0.6</v>
       </c>
-      <c r="U126">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I127">
         <v>126</v>
       </c>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K127">
         <v>44</v>
@@ -5793,33 +5412,30 @@
         <v>87</v>
       </c>
       <c r="M127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N127" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T127">
         <v>0.6</v>
       </c>
-      <c r="U127">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I128">
         <v>127</v>
       </c>
       <c r="J128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K128">
         <v>44</v>
@@ -5828,33 +5444,30 @@
         <v>87</v>
       </c>
       <c r="M128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N128" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T128">
         <v>0.6</v>
       </c>
-      <c r="U128">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I129">
         <v>128</v>
       </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K129">
         <v>44</v>
@@ -5863,33 +5476,30 @@
         <v>87</v>
       </c>
       <c r="M129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N129" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T129">
         <v>0.6</v>
       </c>
-      <c r="U129">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I130">
         <v>129</v>
       </c>
       <c r="J130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K130">
         <v>44</v>
@@ -5898,33 +5508,30 @@
         <v>87</v>
       </c>
       <c r="M130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N130" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T130">
         <v>0.6</v>
       </c>
-      <c r="U130">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I131">
         <v>130</v>
       </c>
       <c r="J131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K131">
         <v>44</v>
@@ -5933,33 +5540,30 @@
         <v>87</v>
       </c>
       <c r="M131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N131" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T131">
         <v>0.6</v>
       </c>
-      <c r="U131">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I132">
         <v>131</v>
       </c>
       <c r="J132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K132">
         <v>44</v>
@@ -5968,33 +5572,30 @@
         <v>87</v>
       </c>
       <c r="M132" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N132" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T132">
         <v>0.6</v>
       </c>
-      <c r="U132">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I133">
         <v>132</v>
       </c>
       <c r="J133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K133">
         <v>44</v>
@@ -6003,33 +5604,30 @@
         <v>87</v>
       </c>
       <c r="M133" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N133" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T133">
         <v>0.6</v>
       </c>
-      <c r="U133">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I134">
         <v>133</v>
       </c>
       <c r="J134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K134">
         <v>44</v>
@@ -6038,33 +5636,30 @@
         <v>87</v>
       </c>
       <c r="M134" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N134" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="Q134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T134">
         <v>0.6</v>
       </c>
-      <c r="U134">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I135">
         <v>134</v>
       </c>
       <c r="J135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K135">
         <v>45</v>
@@ -6073,33 +5668,30 @@
         <v>88</v>
       </c>
       <c r="M135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N135" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="Q135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T135">
         <v>0</v>
       </c>
-      <c r="U135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I136">
         <v>135</v>
       </c>
       <c r="J136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K136">
         <v>45</v>
@@ -6108,33 +5700,30 @@
         <v>88</v>
       </c>
       <c r="M136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N136" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="Q136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T136">
         <v>0</v>
       </c>
-      <c r="U136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I137">
         <v>136</v>
       </c>
       <c r="J137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K137">
         <v>45</v>
@@ -6143,33 +5732,30 @@
         <v>88</v>
       </c>
       <c r="M137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N137" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="Q137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T137">
         <v>0</v>
       </c>
-      <c r="U137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I138">
         <v>137</v>
       </c>
       <c r="J138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K138">
         <v>46</v>
@@ -6178,33 +5764,30 @@
         <v>90</v>
       </c>
       <c r="M138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N138" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T138">
         <v>0</v>
       </c>
-      <c r="U138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I139">
         <v>138</v>
       </c>
       <c r="J139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K139">
         <v>46</v>
@@ -6213,33 +5796,30 @@
         <v>90</v>
       </c>
       <c r="M139" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N139" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T139">
         <v>0</v>
       </c>
-      <c r="U139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I140">
         <v>139</v>
       </c>
       <c r="J140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K140">
         <v>46</v>
@@ -6248,33 +5828,30 @@
         <v>90</v>
       </c>
       <c r="M140" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N140" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T140">
         <v>0</v>
       </c>
-      <c r="U140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I141">
         <v>140</v>
       </c>
       <c r="J141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K141">
         <v>46</v>
@@ -6283,33 +5860,30 @@
         <v>90</v>
       </c>
       <c r="M141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N141" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T141">
         <v>0</v>
       </c>
-      <c r="U141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I142">
         <v>141</v>
       </c>
       <c r="J142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K142">
         <v>46</v>
@@ -6318,33 +5892,30 @@
         <v>90</v>
       </c>
       <c r="M142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N142" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T142">
         <v>0</v>
       </c>
-      <c r="U142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I143">
         <v>142</v>
       </c>
       <c r="J143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K143">
         <v>46</v>
@@ -6353,33 +5924,30 @@
         <v>90</v>
       </c>
       <c r="M143" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N143" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T143">
         <v>0</v>
       </c>
-      <c r="U143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I144">
         <v>143</v>
       </c>
       <c r="J144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K144">
         <v>46</v>
@@ -6388,33 +5956,30 @@
         <v>90</v>
       </c>
       <c r="M144" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N144" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T144">
         <v>0</v>
       </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I145">
         <v>144</v>
       </c>
       <c r="J145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K145">
         <v>46</v>
@@ -6423,33 +5988,30 @@
         <v>90</v>
       </c>
       <c r="M145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N145" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T145">
         <v>0</v>
       </c>
-      <c r="U145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I146">
         <v>145</v>
       </c>
       <c r="J146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K146">
         <v>46</v>
@@ -6458,33 +6020,30 @@
         <v>90</v>
       </c>
       <c r="M146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N146" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T146">
         <v>0</v>
       </c>
-      <c r="U146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I147">
         <v>146</v>
       </c>
       <c r="J147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K147">
         <v>46</v>
@@ -6493,33 +6052,30 @@
         <v>90</v>
       </c>
       <c r="M147" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N147" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Q147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T147">
         <v>0</v>
       </c>
-      <c r="U147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I148">
         <v>147</v>
       </c>
       <c r="J148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K148">
         <v>47</v>
@@ -6528,33 +6084,30 @@
         <v>91</v>
       </c>
       <c r="M148" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N148" s="2">
         <v>45043.916250000002</v>
       </c>
       <c r="Q148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T148">
         <v>0</v>
       </c>
-      <c r="U148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I149">
         <v>148</v>
       </c>
       <c r="J149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K149">
         <v>48</v>
@@ -6563,33 +6116,30 @@
         <v>92</v>
       </c>
       <c r="M149" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N149" s="2">
         <v>45044.001712962963</v>
       </c>
       <c r="Q149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T149">
         <v>0</v>
       </c>
-      <c r="U149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I150">
         <v>149</v>
       </c>
       <c r="J150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K150">
         <v>49</v>
@@ -6598,33 +6148,30 @@
         <v>93</v>
       </c>
       <c r="M150" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N150" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Q150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T150">
         <v>0</v>
       </c>
-      <c r="U150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I151">
         <v>150</v>
       </c>
       <c r="J151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K151">
         <v>49</v>
@@ -6633,33 +6180,30 @@
         <v>93</v>
       </c>
       <c r="M151" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N151" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Q151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T151">
         <v>0</v>
       </c>
-      <c r="U151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I152">
         <v>151</v>
       </c>
       <c r="J152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K152">
         <v>49</v>
@@ -6668,33 +6212,30 @@
         <v>93</v>
       </c>
       <c r="M152" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N152" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Q152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T152">
         <v>0</v>
       </c>
-      <c r="U152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I153">
         <v>152</v>
       </c>
       <c r="J153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K153">
         <v>49</v>
@@ -6703,33 +6244,30 @@
         <v>93</v>
       </c>
       <c r="M153" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N153" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Q153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T153">
         <v>0</v>
       </c>
-      <c r="U153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I154">
         <v>153</v>
       </c>
       <c r="J154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K154">
         <v>49</v>
@@ -6738,33 +6276,30 @@
         <v>93</v>
       </c>
       <c r="M154" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N154" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Q154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T154">
         <v>0</v>
       </c>
-      <c r="U154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I155">
         <v>154</v>
       </c>
       <c r="J155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K155">
         <v>49</v>
@@ -6773,33 +6308,30 @@
         <v>93</v>
       </c>
       <c r="M155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N155" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Q155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T155">
         <v>0</v>
       </c>
-      <c r="U155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I156">
         <v>155</v>
       </c>
       <c r="J156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K156">
         <v>49</v>
@@ -6808,33 +6340,30 @@
         <v>93</v>
       </c>
       <c r="M156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N156" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="Q156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T156">
         <v>0</v>
       </c>
-      <c r="U156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I157">
         <v>156</v>
       </c>
       <c r="J157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K157">
         <v>50</v>
@@ -6843,33 +6372,30 @@
         <v>94</v>
       </c>
       <c r="M157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N157" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="Q157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T157">
         <v>0</v>
       </c>
-      <c r="U157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I158">
         <v>157</v>
       </c>
       <c r="J158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K158">
         <v>50</v>
@@ -6878,33 +6404,30 @@
         <v>94</v>
       </c>
       <c r="M158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N158" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="Q158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T158">
         <v>0</v>
       </c>
-      <c r="U158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I159">
         <v>158</v>
       </c>
       <c r="J159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K159">
         <v>51</v>
@@ -6913,33 +6436,30 @@
         <v>95</v>
       </c>
       <c r="M159" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N159" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="Q159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T159">
         <v>0</v>
       </c>
-      <c r="U159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I160">
         <v>159</v>
       </c>
       <c r="J160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K160">
         <v>52</v>
@@ -6948,33 +6468,30 @@
         <v>96</v>
       </c>
       <c r="M160" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N160" s="2">
         <v>45044.898946759262</v>
       </c>
       <c r="Q160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T160">
         <v>0</v>
       </c>
-      <c r="U160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I161">
         <v>160</v>
       </c>
       <c r="J161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K161">
         <v>53</v>
@@ -6983,33 +6500,30 @@
         <v>98</v>
       </c>
       <c r="M161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N161" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="Q161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T161">
         <v>0</v>
       </c>
-      <c r="U161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I162">
         <v>161</v>
       </c>
       <c r="J162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K162">
         <v>53</v>
@@ -7018,33 +6532,30 @@
         <v>98</v>
       </c>
       <c r="M162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N162" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="Q162" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T162">
         <v>0</v>
       </c>
-      <c r="U162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I163">
         <v>162</v>
       </c>
       <c r="J163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K163">
         <v>53</v>
@@ -7053,33 +6564,30 @@
         <v>98</v>
       </c>
       <c r="M163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N163" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="Q163" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T163">
         <v>0</v>
       </c>
-      <c r="U163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I164">
         <v>163</v>
       </c>
       <c r="J164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K164">
         <v>54</v>
@@ -7088,33 +6596,30 @@
         <v>99</v>
       </c>
       <c r="M164" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N164" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Q164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T164">
         <v>0</v>
       </c>
-      <c r="U164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I165">
         <v>164</v>
       </c>
       <c r="J165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K165">
         <v>54</v>
@@ -7123,33 +6628,30 @@
         <v>99</v>
       </c>
       <c r="M165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N165" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Q165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T165">
         <v>0</v>
       </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I166">
         <v>165</v>
       </c>
       <c r="J166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K166">
         <v>54</v>
@@ -7158,33 +6660,30 @@
         <v>99</v>
       </c>
       <c r="M166" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N166" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Q166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T166">
         <v>0</v>
       </c>
-      <c r="U166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I167">
         <v>166</v>
       </c>
       <c r="J167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K167">
         <v>54</v>
@@ -7193,33 +6692,30 @@
         <v>99</v>
       </c>
       <c r="M167" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N167" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Q167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T167">
         <v>0</v>
       </c>
-      <c r="U167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I168">
         <v>167</v>
       </c>
       <c r="J168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K168">
         <v>54</v>
@@ -7228,33 +6724,30 @@
         <v>99</v>
       </c>
       <c r="M168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N168" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Q168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T168">
         <v>0</v>
       </c>
-      <c r="U168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I169">
         <v>168</v>
       </c>
       <c r="J169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K169">
         <v>54</v>
@@ -7263,33 +6756,30 @@
         <v>99</v>
       </c>
       <c r="M169" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N169" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Q169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T169">
         <v>0</v>
       </c>
-      <c r="U169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I170">
         <v>169</v>
       </c>
       <c r="J170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K170">
         <v>54</v>
@@ -7298,33 +6788,30 @@
         <v>99</v>
       </c>
       <c r="M170" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N170" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Q170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T170">
         <v>0</v>
       </c>
-      <c r="U170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I171">
         <v>170</v>
       </c>
       <c r="J171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K171">
         <v>54</v>
@@ -7333,33 +6820,30 @@
         <v>99</v>
       </c>
       <c r="M171" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N171" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="Q171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T171">
         <v>0</v>
       </c>
-      <c r="U171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I172">
         <v>171</v>
       </c>
       <c r="J172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K172">
         <v>55</v>
@@ -7368,33 +6852,30 @@
         <v>100</v>
       </c>
       <c r="M172" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N172" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T172">
         <v>0</v>
       </c>
-      <c r="U172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I173">
         <v>172</v>
       </c>
       <c r="J173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K173">
         <v>55</v>
@@ -7403,33 +6884,30 @@
         <v>100</v>
       </c>
       <c r="M173" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N173" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T173">
         <v>0</v>
       </c>
-      <c r="U173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I174">
         <v>173</v>
       </c>
       <c r="J174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K174">
         <v>56</v>
@@ -7438,33 +6916,30 @@
         <v>101</v>
       </c>
       <c r="M174" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N174" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T174">
         <v>0</v>
       </c>
-      <c r="U174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I175">
         <v>174</v>
       </c>
       <c r="J175" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K175">
         <v>56</v>
@@ -7473,33 +6948,30 @@
         <v>101</v>
       </c>
       <c r="M175" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N175" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T175">
         <v>0</v>
       </c>
-      <c r="U175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I176">
         <v>175</v>
       </c>
       <c r="J176" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K176">
         <v>56</v>
@@ -7508,33 +6980,30 @@
         <v>101</v>
       </c>
       <c r="M176" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N176" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T176">
         <v>0</v>
       </c>
-      <c r="U176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I177">
         <v>176</v>
       </c>
       <c r="J177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K177">
         <v>56</v>
@@ -7543,33 +7012,30 @@
         <v>101</v>
       </c>
       <c r="M177" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N177" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T177">
         <v>0</v>
       </c>
-      <c r="U177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I178">
         <v>177</v>
       </c>
       <c r="J178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K178">
         <v>57</v>
@@ -7578,33 +7044,30 @@
         <v>102</v>
       </c>
       <c r="M178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N178" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="Q178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T178">
         <v>0</v>
       </c>
-      <c r="U178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I179">
         <v>178</v>
       </c>
       <c r="J179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K179">
         <v>58</v>
@@ -7613,33 +7076,30 @@
         <v>103</v>
       </c>
       <c r="M179" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N179" s="2">
         <v>45045.071967592587</v>
       </c>
       <c r="Q179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T179">
         <v>0</v>
       </c>
-      <c r="U179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I180">
         <v>179</v>
       </c>
       <c r="J180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K180">
         <v>59</v>
@@ -7648,33 +7108,30 @@
         <v>104</v>
       </c>
       <c r="M180" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N180" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="Q180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T180">
         <v>0</v>
       </c>
-      <c r="U180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I181">
         <v>180</v>
       </c>
       <c r="J181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K181">
         <v>59</v>
@@ -7683,33 +7140,30 @@
         <v>104</v>
       </c>
       <c r="M181" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N181" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="Q181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T181">
         <v>0</v>
       </c>
-      <c r="U181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I182">
         <v>181</v>
       </c>
       <c r="J182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K182">
         <v>59</v>
@@ -7718,33 +7172,30 @@
         <v>104</v>
       </c>
       <c r="M182" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N182" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="Q182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T182">
         <v>0</v>
       </c>
-      <c r="U182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I183">
         <v>182</v>
       </c>
       <c r="J183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K183">
         <v>60</v>
@@ -7753,33 +7204,30 @@
         <v>105</v>
       </c>
       <c r="M183" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N183" s="2">
         <v>45045.136759259258</v>
       </c>
       <c r="Q183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T183">
         <v>0</v>
       </c>
-      <c r="U183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I184">
         <v>183</v>
       </c>
       <c r="J184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K184">
         <v>61</v>
@@ -7788,33 +7236,30 @@
         <v>106</v>
       </c>
       <c r="M184" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N184" s="2">
         <v>45045.147962962961</v>
       </c>
       <c r="Q184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T184">
         <v>0</v>
       </c>
-      <c r="U184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I185">
         <v>184</v>
       </c>
       <c r="J185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K185">
         <v>62</v>
@@ -7823,33 +7268,30 @@
         <v>109</v>
       </c>
       <c r="M185" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N185" s="2">
         <v>45045.178460648152</v>
       </c>
       <c r="Q185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T185">
         <v>0</v>
       </c>
-      <c r="U185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I186">
         <v>185</v>
       </c>
       <c r="J186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K186">
         <v>63</v>
@@ -7858,33 +7300,30 @@
         <v>110</v>
       </c>
       <c r="M186" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N186" s="2">
         <v>45045.208935185183</v>
       </c>
       <c r="Q186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T186">
         <v>0</v>
       </c>
-      <c r="U186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I187">
         <v>186</v>
       </c>
       <c r="J187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K187">
         <v>63</v>
@@ -7893,33 +7332,30 @@
         <v>110</v>
       </c>
       <c r="M187" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N187" s="2">
         <v>45045.208935185183</v>
       </c>
       <c r="Q187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T187">
         <v>0</v>
       </c>
-      <c r="U187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I188">
         <v>187</v>
       </c>
       <c r="J188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K188">
         <v>64</v>
@@ -7928,33 +7364,30 @@
         <v>111</v>
       </c>
       <c r="M188" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N188" s="2">
         <v>45045.679583333331</v>
       </c>
       <c r="Q188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T188">
         <v>0</v>
       </c>
-      <c r="U188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I189">
         <v>188</v>
       </c>
       <c r="J189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K189">
         <v>65</v>
@@ -7963,33 +7396,30 @@
         <v>113</v>
       </c>
       <c r="M189" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N189" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="Q189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T189">
         <v>0</v>
       </c>
-      <c r="U189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I190">
         <v>189</v>
       </c>
       <c r="J190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K190">
         <v>66</v>
@@ -7998,33 +7428,30 @@
         <v>114</v>
       </c>
       <c r="M190" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N190" s="2">
         <v>45048.514745370368</v>
       </c>
       <c r="Q190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T190">
         <v>0</v>
       </c>
-      <c r="U190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I191">
         <v>190</v>
       </c>
       <c r="J191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K191">
         <v>67</v>
@@ -8033,33 +7460,30 @@
         <v>115</v>
       </c>
       <c r="M191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N191" s="2">
         <v>45048.691724537042</v>
       </c>
       <c r="Q191" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T191">
         <v>0</v>
       </c>
-      <c r="U191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I192">
         <v>191</v>
       </c>
       <c r="J192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K192">
         <v>68</v>
@@ -8068,33 +7492,30 @@
         <v>117</v>
       </c>
       <c r="M192" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N192" s="2">
         <v>45048.788657407407</v>
       </c>
       <c r="Q192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T192">
         <v>0</v>
       </c>
-      <c r="U192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I193">
         <v>192</v>
       </c>
       <c r="J193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K193">
         <v>69</v>
@@ -8103,33 +7524,30 @@
         <v>118</v>
       </c>
       <c r="M193" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N193" s="2">
         <v>45058.123055555552</v>
       </c>
       <c r="Q193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T193">
         <v>0</v>
       </c>
-      <c r="U193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I194">
         <v>193</v>
       </c>
       <c r="J194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K194">
         <v>70</v>
@@ -8138,33 +7556,30 @@
         <v>119</v>
       </c>
       <c r="M194" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N194" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T194">
         <v>0</v>
       </c>
-      <c r="U194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I195">
         <v>194</v>
       </c>
       <c r="J195" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K195">
         <v>70</v>
@@ -8173,33 +7588,30 @@
         <v>119</v>
       </c>
       <c r="M195" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N195" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T195">
         <v>0</v>
       </c>
-      <c r="U195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I196">
         <v>195</v>
       </c>
       <c r="J196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K196">
         <v>70</v>
@@ -8208,33 +7620,30 @@
         <v>119</v>
       </c>
       <c r="M196" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N196" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T196">
         <v>0</v>
       </c>
-      <c r="U196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I197">
         <v>196</v>
       </c>
       <c r="J197" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K197">
         <v>70</v>
@@ -8243,33 +7652,30 @@
         <v>119</v>
       </c>
       <c r="M197" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N197" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T197">
         <v>0</v>
       </c>
-      <c r="U197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I198">
         <v>197</v>
       </c>
       <c r="J198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K198">
         <v>70</v>
@@ -8278,33 +7684,30 @@
         <v>119</v>
       </c>
       <c r="M198" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N198" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T198">
         <v>0</v>
       </c>
-      <c r="U198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I199">
         <v>198</v>
       </c>
       <c r="J199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K199">
         <v>70</v>
@@ -8313,33 +7716,30 @@
         <v>119</v>
       </c>
       <c r="M199" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N199" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T199">
         <v>0</v>
       </c>
-      <c r="U199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I200">
         <v>199</v>
       </c>
       <c r="J200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K200">
         <v>70</v>
@@ -8348,33 +7748,30 @@
         <v>119</v>
       </c>
       <c r="M200" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N200" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T200">
         <v>0</v>
       </c>
-      <c r="U200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I201">
         <v>200</v>
       </c>
       <c r="J201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K201">
         <v>70</v>
@@ -8383,33 +7780,30 @@
         <v>119</v>
       </c>
       <c r="M201" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N201" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T201">
         <v>0</v>
       </c>
-      <c r="U201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I202">
         <v>201</v>
       </c>
       <c r="J202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K202">
         <v>70</v>
@@ -8418,33 +7812,30 @@
         <v>119</v>
       </c>
       <c r="M202" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N202" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T202">
         <v>0</v>
       </c>
-      <c r="U202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I203">
         <v>202</v>
       </c>
       <c r="J203" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K203">
         <v>70</v>
@@ -8453,33 +7844,30 @@
         <v>119</v>
       </c>
       <c r="M203" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N203" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T203">
         <v>0</v>
       </c>
-      <c r="U203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I204">
         <v>203</v>
       </c>
       <c r="J204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K204">
         <v>70</v>
@@ -8488,33 +7876,30 @@
         <v>119</v>
       </c>
       <c r="M204" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N204" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T204">
         <v>0</v>
       </c>
-      <c r="U204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I205">
         <v>204</v>
       </c>
       <c r="J205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K205">
         <v>70</v>
@@ -8523,33 +7908,30 @@
         <v>119</v>
       </c>
       <c r="M205" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N205" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T205">
         <v>0</v>
       </c>
-      <c r="U205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I206">
         <v>205</v>
       </c>
       <c r="J206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K206">
         <v>70</v>
@@ -8558,33 +7940,30 @@
         <v>119</v>
       </c>
       <c r="M206" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N206" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T206">
         <v>0</v>
       </c>
-      <c r="U206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I207">
         <v>206</v>
       </c>
       <c r="J207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K207">
         <v>70</v>
@@ -8593,33 +7972,30 @@
         <v>119</v>
       </c>
       <c r="M207" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N207" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T207">
         <v>0</v>
       </c>
-      <c r="U207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I208">
         <v>207</v>
       </c>
       <c r="J208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K208">
         <v>70</v>
@@ -8628,33 +8004,30 @@
         <v>119</v>
       </c>
       <c r="M208" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N208" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T208">
         <v>0</v>
       </c>
-      <c r="U208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I209">
         <v>208</v>
       </c>
       <c r="J209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K209">
         <v>70</v>
@@ -8663,33 +8036,30 @@
         <v>119</v>
       </c>
       <c r="M209" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N209" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T209">
         <v>0</v>
       </c>
-      <c r="U209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I210">
         <v>209</v>
       </c>
       <c r="J210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K210">
         <v>70</v>
@@ -8698,33 +8068,30 @@
         <v>119</v>
       </c>
       <c r="M210" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N210" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T210">
         <v>0</v>
       </c>
-      <c r="U210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I211">
         <v>210</v>
       </c>
       <c r="J211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K211">
         <v>70</v>
@@ -8733,33 +8100,30 @@
         <v>119</v>
       </c>
       <c r="M211" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N211" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T211">
         <v>0</v>
       </c>
-      <c r="U211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I212">
         <v>211</v>
       </c>
       <c r="J212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K212">
         <v>70</v>
@@ -8768,33 +8132,30 @@
         <v>119</v>
       </c>
       <c r="M212" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N212" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T212">
         <v>0</v>
       </c>
-      <c r="U212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I213">
         <v>212</v>
       </c>
       <c r="J213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K213">
         <v>70</v>
@@ -8803,18 +8164,15 @@
         <v>119</v>
       </c>
       <c r="M213" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N213" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="Q213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T213">
-        <v>0</v>
-      </c>
-      <c r="U213">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -4025,7 +4025,7 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="69">
@@ -4077,7 +4077,7 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
@@ -4129,7 +4129,7 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="71">

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -3973,7 +3973,7 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68">
@@ -4077,7 +4077,7 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70">
@@ -4181,7 +4181,7 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
@@ -4233,7 +4233,7 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="73">

--- a/files/separadas/repeat_p18.xlsx
+++ b/files/separadas/repeat_p18.xlsx
@@ -588,7 +588,7 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1005,7 +1005,7 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -3817,7 +3817,7 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65">
@@ -6576,7 +6576,7 @@
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="118">
@@ -6628,7 +6628,7 @@
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="119">
@@ -9022,7 +9022,7 @@
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="165">
@@ -9074,7 +9074,7 @@
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="166">
@@ -9126,7 +9126,7 @@
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="167">
@@ -9178,7 +9178,7 @@
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="168">
@@ -9230,7 +9230,7 @@
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="169">
@@ -9282,7 +9282,7 @@
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="170">
@@ -9334,7 +9334,7 @@
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="171">
@@ -9386,7 +9386,7 @@
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="172">
@@ -9856,7 +9856,7 @@
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="181">
@@ -9908,7 +9908,7 @@
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="182">
@@ -9960,7 +9960,7 @@
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="183">
@@ -10066,7 +10066,7 @@
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="185">
@@ -10170,7 +10170,7 @@
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="187">
@@ -10222,7 +10222,7 @@
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="188">
@@ -10483,7 +10483,7 @@
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="193">
